--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32738-d634893-Reviews-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Monterey-Park.h1588304.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1089 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r564979978-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>32738</t>
+  </si>
+  <si>
+    <t>634893</t>
+  </si>
+  <si>
+    <t>564979978</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>PRETTY NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quiet. I had just traveled all day and they let me check in early which was so great.I had a couple of gift cards and at first they weren’t going to honor them which was weird - I don’t really know why. Then they changed their minds.It’s not super fancy but it’s in a nice clean neighborhood and there are lots of restaurants really close by - walking distance. Perfect for a short stay </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r563952965-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>563952965</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Great budget hotel</t>
+  </si>
+  <si>
+    <t>I have just returned from a trip to L.A. this hotel was a great find clean with good transport links it's about an hour from the airport 40 mins to the Hollywood sign.The hotel was clean and includes a free continental breakfast check in was fast and the young girl on the desk very polite and helpful would definitely recommend and stay again.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r551011194-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>551011194</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Wouldn’t come again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were given a handicap room with 2 full size beds which is not what we requested. The door from the bathroom had been removed and replaced with a semi sheer shower curtain. I am guessing to make the bathroom handicap assessable?  Also the mirror in the bathroom was hung sideways above the sink so those of us who are taller than 4 feet tall had to bend over to use the mirror. We did get a towels, hand towels and washcloths the first night but only received fresh towels the second night. Sadly disappointed in our stay. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r508253685-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>508253685</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Gone down.</t>
+  </si>
+  <si>
+    <t>Since my last review couple of years back, this place is gone way down. If you are staying for a couple of days, you will have to endure the really very very dirty carpets throughout the motel. It is worse in the rooms. I checked out several and they were all very very dirty with spots all over. You will not feel like walking bear feet in the room. Other than that the houskeeping does a good job of cleaning the bath room and doing the beds. The breakfast is decent but in a very small space. Location is good if you like chinese/thai food. Also, very thin walls - you will hear everything next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Since my last review couple of years back, this place is gone way down. If you are staying for a couple of days, you will have to endure the really very very dirty carpets throughout the motel. It is worse in the rooms. I checked out several and they were all very very dirty with spots all over. You will not feel like walking bear feet in the room. Other than that the houskeeping does a good job of cleaning the bath room and doing the beds. The breakfast is decent but in a very small space. Location is good if you like chinese/thai food. Also, very thin walls - you will hear everything next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r502363147-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>502363147</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Limited hotel choce at Monterey Park - Average at best</t>
+  </si>
+  <si>
+    <t>With Best Western getting out of Monterey Park market at their location near Atlantic Square, and Ramada's exit quite some time ago of Lincoln Plaza.  Comfort Inn is the only remaining chain hotel at Monterey Park if you wish stay near by the Atlantic Bivd./ Garvey Ave. area.  It is a no-thrill facility, a place to lay your head for the night with free parking and continental breakfast provided.  The attitude of the front desk personnel can be best described as indifference.  It definitely is NOT worth staying at $170 per night on our recent trip this past week at Monterey Park. The 1 King bedroom and bathroom are of decent size. The wash basin is located right off the entrance to the room, separate from the bathroom (toilet and shower/tub), which works fine for us, as one of us could get ready with washing face/brushing teeth/blow-drying hair while the other person is using the toilet or showering.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>With Best Western getting out of Monterey Park market at their location near Atlantic Square, and Ramada's exit quite some time ago of Lincoln Plaza.  Comfort Inn is the only remaining chain hotel at Monterey Park if you wish stay near by the Atlantic Bivd./ Garvey Ave. area.  It is a no-thrill facility, a place to lay your head for the night with free parking and continental breakfast provided.  The attitude of the front desk personnel can be best described as indifference.  It definitely is NOT worth staying at $170 per night on our recent trip this past week at Monterey Park. The 1 King bedroom and bathroom are of decent size. The wash basin is located right off the entrance to the room, separate from the bathroom (toilet and shower/tub), which works fine for us, as one of us could get ready with washing face/brushing teeth/blow-drying hair while the other person is using the toilet or showering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r494717548-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>494717548</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Room was OK, but noisy A/C, dirty carpet, little breakfast seating</t>
+  </si>
+  <si>
+    <t>We had a room with 2 queen beds for our family.  Room size was adequate, fairly clean, however the carpet was really dirty, and the A/C made noise all night.  Breakfast is adequate, but there is only seating for 9 people in a hotel with 50 rooms!  Be prepared to take your breakfast back up to your room to eat it!  Also, don't drive up in front of the front door--very steep driveway, lots of cars have bottomed out!  Park on the side and walk up to the office area to check in.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r481149083-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>481149083</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Simple stay</t>
+  </si>
+  <si>
+    <t>Outside hotel ~ you wont notice easily the inn because of the tree in front. Parking~ampld Hotel ~3 stories only. Elevator provided. Dining area for breakfast can accommodate only 12 pax. Altho you can take the food to your room in case ni rabls is available., egg, sausage, bread, coffee, waffle, cereal etc .  I was able to print  some dox with the kind assistance of the front desk ofcicer . Room ~2 double bed room looks smaller than the king bed room.  Carpet is old. Has,tv, ref, coffee market , microwave ..  sink is outside,the,toilet, Overall stay is good considering the,price anx,breakfast given..</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r474610605-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>474610605</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is about 45 minutes by Uber from the Airport. Staff was there but all seemed to be aloof and not very friendly. Room was comfortable and had a small fridge and microwave. There are many restaurants (mostly Asian) within walking distance of the hotel.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r471824340-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>471824340</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Pros:-location: close to many good Asian restaurants of SGV. There are several places within walking distance too, including multiple boba places, asian restaurants, grocery stores (both regular places like Ralphs, as well as chinese groceries like 99 ranch)-room is fairly big-wifi is relatively fast and free-comfortable beds-ample parking-microwave and fridge-free bfast (didn't try)Cons:-walls are super thin. You can hear everything from other rooms, including room above-hallways are old and kinda run down-rooms are in need of renovation (although clean)-no gym, although there is a LA fitness and 24hr fitness within walking distanceWill not hesitate to stay here again</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r455553054-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>455553054</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, no frills, and the worst complimentary breakfast ever</t>
+  </si>
+  <si>
+    <t>I must be getting used to Monterey Park as my go-to place when visiting L.A. with my partner, since it's close enough to everything in the city yet far enough away to be a good budget option. After all, this relatively nondescript place cost only $140 per night, but its convenient location on South Atlantic meant you can get on either the San Bernardino Freeway (I-10) or the Pomona Freeway (SR 60) pretty easily and get to all points west efficiently. In L.A., easy navigation is everything, especially before you get to the Slauson cut-off where they cut off your Slauson.
+At least that's what Tea Time movie host Art Fern used to say on Johnny Carson anyway. Anyhow, we got there pretty early and kept waiting for a Chinese man to finish his reservation at the front desk since he was apparently booking up rooms for quite a large family wedding. When it was finally my turn, we were given a decent enough room on the first floor, even though there appeared to be a midnight track meet being held above us. Damn kids. 
+Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be...I must be getting used to Monterey Park as my go-to place when visiting L.A. with my partner, since it's close enough to everything in the city yet far enough away to be a good budget option. After all, this relatively nondescript place cost only $140 per night, but its convenient location on South Atlantic meant you can get on either the San Bernardino Freeway (I-10) or the Pomona Freeway (SR 60) pretty easily and get to all points west efficiently. In L.A., easy navigation is everything, especially before you get to the Slauson cut-off where they cut off your Slauson.At least that's what Tea Time movie host Art Fern used to say on Johnny Carson anyway. Anyhow, we got there pretty early and kept waiting for a Chinese man to finish his reservation at the front desk since he was apparently booking up rooms for quite a large family wedding. When it was finally my turn, we were given a decent enough room on the first floor, even though there appeared to be a midnight track meet being held above us. Damn kids. Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be the smallest room with only three tables available. That meant waiting around with your plate in hand as you hope people will eventually give up their tables. Yeah, as if.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I must be getting used to Monterey Park as my go-to place when visiting L.A. with my partner, since it's close enough to everything in the city yet far enough away to be a good budget option. After all, this relatively nondescript place cost only $140 per night, but its convenient location on South Atlantic meant you can get on either the San Bernardino Freeway (I-10) or the Pomona Freeway (SR 60) pretty easily and get to all points west efficiently. In L.A., easy navigation is everything, especially before you get to the Slauson cut-off where they cut off your Slauson.
+At least that's what Tea Time movie host Art Fern used to say on Johnny Carson anyway. Anyhow, we got there pretty early and kept waiting for a Chinese man to finish his reservation at the front desk since he was apparently booking up rooms for quite a large family wedding. When it was finally my turn, we were given a decent enough room on the first floor, even though there appeared to be a midnight track meet being held above us. Damn kids. 
+Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be...I must be getting used to Monterey Park as my go-to place when visiting L.A. with my partner, since it's close enough to everything in the city yet far enough away to be a good budget option. After all, this relatively nondescript place cost only $140 per night, but its convenient location on South Atlantic meant you can get on either the San Bernardino Freeway (I-10) or the Pomona Freeway (SR 60) pretty easily and get to all points west efficiently. In L.A., easy navigation is everything, especially before you get to the Slauson cut-off where they cut off your Slauson.At least that's what Tea Time movie host Art Fern used to say on Johnny Carson anyway. Anyhow, we got there pretty early and kept waiting for a Chinese man to finish his reservation at the front desk since he was apparently booking up rooms for quite a large family wedding. When it was finally my turn, we were given a decent enough room on the first floor, even though there appeared to be a midnight track meet being held above us. Damn kids. Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be the smallest room with only three tables available. That meant waiting around with your plate in hand as you hope people will eventually give up their tables. Yeah, as if.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r447323270-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>447323270</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Skip this place</t>
+  </si>
+  <si>
+    <t>The room was very small, with 2 queen beds, a large desk and a desk chair, a cabinet that had 2 or 3 drawers and held a small micro and refrigerator, a flat screen TV on the wall.  The bathroom had a tub and toilet,  The small sink was outside in the entryway next to the open closet.  The carpet was stained in several places.  The breakfast was ample and included hot items, but the breakfast room was very small - three small tables and 9 chairs for a three-story building.  The yogurt ran out an hour before the close of breakfast and was not replenished.  The hallway carpet was worn and stained. There is really no lobby, just a check-in desk and an elevator, which could also be accessed from the rear through a basement hallway.   To enter through the front door, there was a choice of stairs or a very steep driveway.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The room was very small, with 2 queen beds, a large desk and a desk chair, a cabinet that had 2 or 3 drawers and held a small micro and refrigerator, a flat screen TV on the wall.  The bathroom had a tub and toilet,  The small sink was outside in the entryway next to the open closet.  The carpet was stained in several places.  The breakfast was ample and included hot items, but the breakfast room was very small - three small tables and 9 chairs for a three-story building.  The yogurt ran out an hour before the close of breakfast and was not replenished.  The hallway carpet was worn and stained. There is really no lobby, just a check-in desk and an elevator, which could also be accessed from the rear through a basement hallway.   To enter through the front door, there was a choice of stairs or a very steep driveway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r446474050-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>446474050</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Absolute RIP OFF</t>
+  </si>
+  <si>
+    <t>When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day 👌- We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! 
+This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .
+Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!
+This receptionist named May allowed us to extend our check out time till 12 pm 
+The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."
+Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .
+Save yourself from all of this hassle and go to another hotel . 
+This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . 
+Don't know where all of the positive reviews come from...When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!This receptionist named May allowed us to extend our check out time till 12 pm The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .Save yourself from all of this hassle and go to another hotel . This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . Don't know where all of the positive reviews come from - everyone was unfriendly here - no one smiled at us BYE I'M OUTTA HEREMoreShow less</t>
+  </si>
+  <si>
+    <t>When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day 👌- We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! 
+This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .
+Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!
+This receptionist named May allowed us to extend our check out time till 12 pm 
+The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."
+Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .
+Save yourself from all of this hassle and go to another hotel . 
+This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . 
+Don't know where all of the positive reviews come from...When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!This receptionist named May allowed us to extend our check out time till 12 pm The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .Save yourself from all of this hassle and go to another hotel . This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . Don't know where all of the positive reviews come from - everyone was unfriendly here - no one smiled at us BYE I'M OUTTA HEREMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r427645920-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>427645920</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>This comfort inn was ok with a very small breakfast area. My room was located right next to check in area so we heard everyone walking in and out. Staff was ok but not to accommodating. Location is ok also</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r426580543-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>426580543</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Clean room in a Japanese neighborhood</t>
+  </si>
+  <si>
+    <t>All the businesses around this place were in Japanese which made me wonder if we crossed the ocean somehow.  The place is ran by India, Indians which were friendly.  Room is very clean and bed is comfortable. The bathroom was average with ok water pressure for a shower.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r425343213-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>425343213</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unacceptable </t>
+  </si>
+  <si>
+    <t>For a nonsmoking hotel, the first thing I noticed was the smoke odor.  After checking in I walked to my room and noticed the filthy carpets.  Once I was in the room I noticed more stains in the carpet.  I had to rush out for dinner and Disneyland.  I returned and totally crashed but noticed the fan wasn't working on the AC unit.  As I was getting ready for my Monday this was the worst thing I noticed: all the towels, washcloths, and hand towels were grey and very dingy!!! I advised the front desk of all issues and their response was the washer must be not working correct. I had 2 weeks reserved but checked out immediately after I talked to the front desk and cancelled my reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>For a nonsmoking hotel, the first thing I noticed was the smoke odor.  After checking in I walked to my room and noticed the filthy carpets.  Once I was in the room I noticed more stains in the carpet.  I had to rush out for dinner and Disneyland.  I returned and totally crashed but noticed the fan wasn't working on the AC unit.  As I was getting ready for my Monday this was the worst thing I noticed: all the towels, washcloths, and hand towels were grey and very dingy!!! I advised the front desk of all issues and their response was the washer must be not working correct. I had 2 weeks reserved but checked out immediately after I talked to the front desk and cancelled my reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r376119840-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>376119840</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Very Strange experience</t>
+  </si>
+  <si>
+    <t>I had Business in Monterey Park So I check in the room was filthy the bed was unmade there was trash in all of the receptacles. I returned to the Front desk and informed the clerk and he immediately assigned me another room. This is where it gets weird. I go into La for dinner with friends and upon my return to the hotel my room door is open. I double checked to make sure the room was locked when AI left. I had left an IPad in the room charging and because my room was at the end of the hall and my door was not visible. The two end rooms are in a alcove .All of my items were intact in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I had Business in Monterey Park So I check in the room was filthy the bed was unmade there was trash in all of the receptacles. I returned to the Front desk and informed the clerk and he immediately assigned me another room. This is where it gets weird. I go into La for dinner with friends and upon my return to the hotel my room door is open. I double checked to make sure the room was locked when AI left. I had left an IPad in the room charging and because my room was at the end of the hall and my door was not visible. The two end rooms are in a alcove .All of my items were intact in my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r374495198-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>374495198</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Easy access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveling to downtown LA can be overwhelming during rush hour. This hotel was quick access and comfortable. It is an older hotel and it does need a lot of taking care of, and a bit noisy in the morning . However, It's a clean bed and your basic amenities. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r373218218-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>373218218</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not what we expected. </t>
+  </si>
+  <si>
+    <t>After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the...After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the clerk my bill and asked if it was broken when the bill was printed and she didn't say a word! Needless to say I will not stay here again or recommend this hotel to anyone. If you choose to stay here there is a great pizza place named Shakey's Pizza, Boston Market, IHOP, and Marie Callendars restaurant nearby. MoreShow less</t>
+  </si>
+  <si>
+    <t>After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the...After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the clerk my bill and asked if it was broken when the bill was printed and she didn't say a word! Needless to say I will not stay here again or recommend this hotel to anyone. If you choose to stay here there is a great pizza place named Shakey's Pizza, Boston Market, IHOP, and Marie Callendars restaurant nearby. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r360501234-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>360501234</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Good accomodations, central area</t>
+  </si>
+  <si>
+    <t>Room was laid out weird where the sink was next to the bed, and the toilet and shower were in its' own separate room. Other than that the accommodations were clean and fine. The furniture was a bit worn down however and the hotel could use an update. Parking is outside around the hotel, and it is a bit limited. The location is pretty central to Monterey Park and has lots of Asian restaurants. Would recommend if you are visiting the area and need a place to stay.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r357716850-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>357716850</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Close to Downtown, but room was noisy</t>
+  </si>
+  <si>
+    <t>Stayed here on a Sunday night, hotel was about 3/4 full. Good location just east of Downtown LA, between the 10 and 60 Freeways. Decent area, many Asian restaurants and stores within walking distance. Tight, small parking lot - good luck parking your behemoth SUVs. Front desk staff could be more friendly. Asked for upper floor room - was assigned 2nd floor room instead - as a result, I endured a long night of what must have been a sumo wrestling meet or a furniture moving contest in the room above me - very unpleasant, resulting in a poor nights' sleep. My King room was small but clean. Bed was comfortable. Hallway carpet on 2nd floor was filthy and disgusting. Overall, I was disappointed and do not plan on returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here on a Sunday night, hotel was about 3/4 full. Good location just east of Downtown LA, between the 10 and 60 Freeways. Decent area, many Asian restaurants and stores within walking distance. Tight, small parking lot - good luck parking your behemoth SUVs. Front desk staff could be more friendly. Asked for upper floor room - was assigned 2nd floor room instead - as a result, I endured a long night of what must have been a sumo wrestling meet or a furniture moving contest in the room above me - very unpleasant, resulting in a poor nights' sleep. My King room was small but clean. Bed was comfortable. Hallway carpet on 2nd floor was filthy and disgusting. Overall, I was disappointed and do not plan on returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r350714088-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>350714088</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Friendly and clean!</t>
+  </si>
+  <si>
+    <t>We had stayed at another location for a horrible 4 nights but refused to stay a 5th. So we looked for another place as quickly as we could and found Comfort Inn. I am so greatful we did. The gentleman that checked us in was very pleasant and helpful. The room was very nice and appealing. Finally, a comfortable sleep on a comfy bed. We enjoyed the generous continental breakfast. We would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r327894310-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>327894310</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>2nd time we stayed here but beware of the steep front entrance for driving your car there!</t>
+  </si>
+  <si>
+    <t>We again recently stayed here when we visited our daughter in Monterey Park.    First time was September 2014 and this time was November 2015 for one night with a Las Vegas cousin and her husband who drove the 4 of us to LA.  Our rooms were across from each other as I had requested when making the reservation and the included breakfast met our needs.  Waffles, scrambled eggs, sausage, limited assortment of cold cereals, orange and apple juices, oatmeal, yogurt, fresh fruits, and coffee are all included. When you arrive, I recommend that you park in one of the parking spots on either side of the hotel and walk into the front entrance to avoid any damage to the underside of your car.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We again recently stayed here when we visited our daughter in Monterey Park.    First time was September 2014 and this time was November 2015 for one night with a Las Vegas cousin and her husband who drove the 4 of us to LA.  Our rooms were across from each other as I had requested when making the reservation and the included breakfast met our needs.  Waffles, scrambled eggs, sausage, limited assortment of cold cereals, orange and apple juices, oatmeal, yogurt, fresh fruits, and coffee are all included. When you arrive, I recommend that you park in one of the parking spots on either side of the hotel and walk into the front entrance to avoid any damage to the underside of your car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r322953405-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>322953405</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>Nothing "fancy" but definitely clean and comfortable with free hot breakfast. Room was easily accessible for my wheelchair bound husband. Comfortable bed. Friendly and responsive staff. The lobby and breakfast area are small but you don't really need a lot of room for those.Quiet neighborhood with everything you need. Easy access to freeway. Makes a great home base for vacation or business. We will stay again!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r316963171-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>316963171</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>I must say ive been to alot of hotels lately and i must say this hotel was great. Everything about it. I loved the beds with all the pillows. The fact that we could take our breakfast back to our rooms. Was so cool. Most places you have to eat it in the breakfast area. Only thing was there ice machine. Kind of scary. You have ro go to the basement to get the ice. At night no one is down there so if your a female it could be scary. I was. But everything else was great. Thank you. Will go back and i will let my friends know how nice this hotel really is.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I must say ive been to alot of hotels lately and i must say this hotel was great. Everything about it. I loved the beds with all the pillows. The fact that we could take our breakfast back to our rooms. Was so cool. Most places you have to eat it in the breakfast area. Only thing was there ice machine. Kind of scary. You have ro go to the basement to get the ice. At night no one is down there so if your a female it could be scary. I was. But everything else was great. Thank you. Will go back and i will let my friends know how nice this hotel really is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r285177151-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>285177151</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Good value, clean</t>
+  </si>
+  <si>
+    <t>Hotels in LA are hard to find and can be pricey. This hotel is basic, but clean and in a reasonable area with shopping and restaurants. Rooms could use some updating, but were clean and a good value. We will stay here again when visiting family in the area.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r278260537-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>278260537</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>One bad apple almost ruined this experience</t>
+  </si>
+  <si>
+    <t>This is an older hotel, but it is in a nice, clean safe area around L.A. If you are fan of Asian cuisine and culture, this is a perfect place. I was very concerned that my stay would be horrible when the first words I hear from the desk clerk were, "Just give me your license." She did not greet me at all, did not smile, and was short in her answers to me. The rooms are hotel rooms; there are not suites. There is not really a lobby area, and the breakfast "nook" can only accommodate 12 guests at a time. The rooms were comfortable, and the rest of the staff was most pleasant. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This is an older hotel, but it is in a nice, clean safe area around L.A. If you are fan of Asian cuisine and culture, this is a perfect place. I was very concerned that my stay would be horrible when the first words I hear from the desk clerk were, "Just give me your license." She did not greet me at all, did not smile, and was short in her answers to me. The rooms are hotel rooms; there are not suites. There is not really a lobby area, and the breakfast "nook" can only accommodate 12 guests at a time. The rooms were comfortable, and the rest of the staff was most pleasant. I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r268215279-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>268215279</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Old premise, Bad service</t>
+  </si>
+  <si>
+    <t>I stayed in the comfort chain hotels many times and expected certain level of quality but i didn't experienced in this location.   Firstly the hotel is old and dated.  Rooms and public areas were not as clean as they should be.  When I asked for a slightly late check out,  the staff was very unaccomodating and wanted us out of the room, although it was only 30 mins passed noon.  Definitely giving this place a miss next time.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r258264257-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>258264257</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly comfortable!</t>
+  </si>
+  <si>
+    <t>We stayed here after returning from the Getty Center and we were surprised at how clean this place was.  I've been to Monterey Park before and it wasn't a very clean city overall.  There was adequate parking which we love.  The check-in process was fair as there was a line.  The room was clean and in working order.  The building wasn't new but it looked like there was a fresh coat of paint which helps.  The sleep was comfortable except the previous guest programmed the alarm clock to go out at 12:00 am.  It woke us up and annoyed the hell out of me.  But that wasn't the hotel's fault.  The check-out process was quick and easy.  The breakfast was actually pretty good except the breakfast area was tiny.  We had to take our breakfast on the go.I like the location of this hotel as it was close to many restaurants.  Would stay here again if I venture that way.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We stayed here after returning from the Getty Center and we were surprised at how clean this place was.  I've been to Monterey Park before and it wasn't a very clean city overall.  There was adequate parking which we love.  The check-in process was fair as there was a line.  The room was clean and in working order.  The building wasn't new but it looked like there was a fresh coat of paint which helps.  The sleep was comfortable except the previous guest programmed the alarm clock to go out at 12:00 am.  It woke us up and annoyed the hell out of me.  But that wasn't the hotel's fault.  The check-out process was quick and easy.  The breakfast was actually pretty good except the breakfast area was tiny.  We had to take our breakfast on the go.I like the location of this hotel as it was close to many restaurants.  Would stay here again if I venture that way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r257546191-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>257546191</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>One week stay</t>
+  </si>
+  <si>
+    <t>We had to make sudden plans to stay at the Comfort Inn because of a family emergency in Monterey Park. We reserved 7 days, except that one day in the middle of our stay lacked an available room. Suren, the front desk man, showed much compassion and desire to help. He was able to work things out so that our other family matters were uninterrupted. We are quite thankful for his thoughtfulness and help. The Comfort Inn is an older building, but it's maintained well. Cleaning staff did a good job. The complimentary breakfast is small compared to some other hotels, but it served it's purpose. Plenty of on-site free parking. WiFi is free. The hotel is located within walking distance of other eating establishments. We would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to make sudden plans to stay at the Comfort Inn because of a family emergency in Monterey Park. We reserved 7 days, except that one day in the middle of our stay lacked an available room. Suren, the front desk man, showed much compassion and desire to help. He was able to work things out so that our other family matters were uninterrupted. We are quite thankful for his thoughtfulness and help. The Comfort Inn is an older building, but it's maintained well. Cleaning staff did a good job. The complimentary breakfast is small compared to some other hotels, but it served it's purpose. Plenty of on-site free parking. WiFi is free. The hotel is located within walking distance of other eating establishments. We would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r253795405-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>253795405</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Clean and good location.</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights in a King bed room. Location is good with lots of eating options walking distance away. Has ample parking and check in was quick. Rooms are nice with comfortable beds but can get noisy as walls are thin and you can hear the upstairs guests walking around. Asked and got a room change to an upstairs room where did not have noise trouble at night. Mr Suren the Manager was very helpful and greets all guests with a smile. Breakfast room though small, has a lot of options including waffles, hot scrambled eggs and sausages, etc., and the lady working there is quick to replanish items quickly. Overall the place is clean with good wifi and highly recomended.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights in a King bed room. Location is good with lots of eating options walking distance away. Has ample parking and check in was quick. Rooms are nice with comfortable beds but can get noisy as walls are thin and you can hear the upstairs guests walking around. Asked and got a room change to an upstairs room where did not have noise trouble at night. Mr Suren the Manager was very helpful and greets all guests with a smile. Breakfast room though small, has a lot of options including waffles, hot scrambled eggs and sausages, etc., and the lady working there is quick to replanish items quickly. Overall the place is clean with good wifi and highly recomended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r232314358-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>232314358</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Clean but hard to find</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this hotel. The employees where all very nice, though when we had a difficult time finding the hotel and called the hotel for help there was a very serious language barrier with the front desk which frustrated me and the employee. The hotel is hard to find due to over grown trees and burned out lighting (see picture). The hotel is older but is well taken care of and clean. the walls and ceilings have very little insulation so you can hear everything next door and above your room. The continental breakfast was very nice and the location seemed like a good area.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r229798977-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>229798977</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed 1 night, 2 adults, 2 teenage children. A good hotel for a stop over night. Rooms a bit small for extended stays with family.Rooms are clean and well appointed.Free breakfast is good and coffee is hot!Free parking a big plus.Recommended. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r228998552-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>228998552</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable visit</t>
+  </si>
+  <si>
+    <t>Enjoyable visit. I Stayed one night at the Comfort Inn Monterey Los Angeles with my family on July 16th 2014.. Quiet, clean and comfortable room. Enjoyed breakfast. ..will return on my next visit to LA</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r226455445-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>226455445</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>decent stay in LA</t>
+  </si>
+  <si>
+    <t>Nice hotel in a good locality with plenty of dining options outside. The front desk was friendly. Rooms were clean and comfortable. No complaints. Will definitely recommend this hotel to anyone wanting to visit LA. The reception area is a bit very small for a hotel.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r216220818-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>216220818</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Nice stay, highly recommend!</t>
+  </si>
+  <si>
+    <t>My first day arrival in Los Angeles.  Very nice stay, I came with my child and my sister's family, stop for a night before heading towards theme parks and other locations.  Hotel staff are friendly and helpful, rooms are tidy and clean, quiet in the evening.  Breakfast corner is a bit small, only 3 tables and 10 seats, so it's better to get there early to avoid pack of guests, breakfast is served at 6:30am with enough choices: waffle, muffin, cereal, toast, sausage &amp; eggs, coffee, juice &amp; water.  There is free parking lot, good for family or business trip.  Highly recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r214131133-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>214131133</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Had a Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for an evening while in the Los Angeles area. The staff was very friendly and helpful. Our room was very nice, clean and comfortable, with a lot of space. The breakfast was fine to get you started on your day. Close drive to a lot of attractions, would recommend staying here if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r209166147-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>209166147</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on business,  I would highly recommend this hotel. I have stayed at many many hotels and this hotel is going to be a regular on our scheduled visits to the area. The rooms are updated,  grear bed and linens, large flat screen tv with plenty of channels,  hot water, great water pressure in the shower, microwave and refrigerator in the room. The breakfast is not a restaurant style buffett but has plenty for breakfast like eggs, sausage,  coffee, apple juice,  orange juice,  water, milk, all konds of breads, yogurt, boiled eggs,  waffles and fresh fruit. The staff is friendly,  great parking lot, close to all the freeways I had made it from the hotel to Hollywood blvd in 20 min. No funky smells. I think it is acceptable and very safe area. I would recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>comfortinn Mont... c, General Manager at Comfort Inn Monterey Park, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on business,  I would highly recommend this hotel. I have stayed at many many hotels and this hotel is going to be a regular on our scheduled visits to the area. The rooms are updated,  grear bed and linens, large flat screen tv with plenty of channels,  hot water, great water pressure in the shower, microwave and refrigerator in the room. The breakfast is not a restaurant style buffett but has plenty for breakfast like eggs, sausage,  coffee, apple juice,  orange juice,  water, milk, all konds of breads, yogurt, boiled eggs,  waffles and fresh fruit. The staff is friendly,  great parking lot, close to all the freeways I had made it from the hotel to Hollywood blvd in 20 min. No funky smells. I think it is acceptable and very safe area. I would recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r192771833-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>192771833</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>A Difficult Stay</t>
+  </si>
+  <si>
+    <t>Difficult to find, cramped room space, tough communication skills from some staff: all  of these cause us to not want to ever return to this location.
+The room was clean, and the furnishings in the two bedded room were fine, but with little space to put our bags.  We could not move from the bed to the bathroom or the exit door unless one of us was out of the room or sitting by the head of a bed. The rooms are best served for one person only. We noticed several families staying there; quite a challenge regarding movement in the rooms I should imagine. Even then, the bathroom door blocks movement in and out of the room and in and out of the doorway to the hall.  The bathroom is very small, too small for a wheelchair, yet all the rooms seem to have a wheelchair accessible size door; this door opens out,into the room's very narrow entryway.    We had to pass the water leaking into a pail in the hall, from an overhead pipe, each time we left the room to leave the floor we were staying on; rather unpleasant.
+There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave...Difficult to find, cramped room space, tough communication skills from some staff: all  of these cause us to not want to ever return to this location.The room was clean, and the furnishings in the two bedded room were fine, but with little space to put our bags.  We could not move from the bed to the bathroom or the exit door unless one of us was out of the room or sitting by the head of a bed. The rooms are best served for one person only. We noticed several families staying there; quite a challenge regarding movement in the rooms I should imagine. Even then, the bathroom door blocks movement in and out of the room and in and out of the doorway to the hall.  The bathroom is very small, too small for a wheelchair, yet all the rooms seem to have a wheelchair accessible size door; this door opens out,into the room's very narrow entryway.    We had to pass the water leaking into a pail in the hall, from an overhead pipe, each time we left the room to leave the floor we were staying on; rather unpleasant. There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave up on trying to get a little food and left.  I didn't make coffee in the room, with the little, individual coffeemaker because the cleaning staff had left the coffeemaker filled with water; I had no idea how long that water had been in there; I decided I did not want to clean it out for them either.The location is more than a mile from the busy Asian shopping/restaurant section of town, but only 1 block to a couple of decent Asian restaurants.  We were quite disappointed that we were unable to have any dim sum for dinner the night we were there, as so highly recommended by fellow travelers on this Tripadvisor website.  They forgot to mention that these restaurants only serve dim sum at lunch time- never at dinner time.  So, dim sum lovers be advised; arrive intime for lunch.  It is true that it is only 20 to 30 minutes to the tourist sights of LA, via the Interstate 10, which is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Difficult to find, cramped room space, tough communication skills from some staff: all  of these cause us to not want to ever return to this location.
+The room was clean, and the furnishings in the two bedded room were fine, but with little space to put our bags.  We could not move from the bed to the bathroom or the exit door unless one of us was out of the room or sitting by the head of a bed. The rooms are best served for one person only. We noticed several families staying there; quite a challenge regarding movement in the rooms I should imagine. Even then, the bathroom door blocks movement in and out of the room and in and out of the doorway to the hall.  The bathroom is very small, too small for a wheelchair, yet all the rooms seem to have a wheelchair accessible size door; this door opens out,into the room's very narrow entryway.    We had to pass the water leaking into a pail in the hall, from an overhead pipe, each time we left the room to leave the floor we were staying on; rather unpleasant.
+There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave...Difficult to find, cramped room space, tough communication skills from some staff: all  of these cause us to not want to ever return to this location.The room was clean, and the furnishings in the two bedded room were fine, but with little space to put our bags.  We could not move from the bed to the bathroom or the exit door unless one of us was out of the room or sitting by the head of a bed. The rooms are best served for one person only. We noticed several families staying there; quite a challenge regarding movement in the rooms I should imagine. Even then, the bathroom door blocks movement in and out of the room and in and out of the doorway to the hall.  The bathroom is very small, too small for a wheelchair, yet all the rooms seem to have a wheelchair accessible size door; this door opens out,into the room's very narrow entryway.    We had to pass the water leaking into a pail in the hall, from an overhead pipe, each time we left the room to leave the floor we were staying on; rather unpleasant. There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave up on trying to get a little food and left.  I didn't make coffee in the room, with the little, individual coffeemaker because the cleaning staff had left the coffeemaker filled with water; I had no idea how long that water had been in there; I decided I did not want to clean it out for them either.The location is more than a mile from the busy Asian shopping/restaurant section of town, but only 1 block to a couple of decent Asian restaurants.  We were quite disappointed that we were unable to have any dim sum for dinner the night we were there, as so highly recommended by fellow travelers on this Tripadvisor website.  They forgot to mention that these restaurants only serve dim sum at lunch time- never at dinner time.  So, dim sum lovers be advised; arrive intime for lunch.  It is true that it is only 20 to 30 minutes to the tourist sights of LA, via the Interstate 10, which is convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r190513725-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>190513725</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>I'd definitely come back again</t>
+  </si>
+  <si>
+    <t>Had a very pleasant stay here. The staff was very welcoming and accomodating. The room was clean and the housekeeping staff did an excellent job of keeping it that way. Had a flat screen TV, refrigerator, microwave and coffee machine with coffee and tea bags. The breakfast bar was better than I expected and included eggs, sausage, make-your-own waffles, choice of juices, fresh fruit, pastries, yogurt, cereals, oatmeal, and hard boiled eggs. They keep the breakfast area very clean and stock items that are running out. The entire look of the hotel is professional, modern, fresh. I'd definitely come back again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r181426096-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>181426096</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Great value hotel for a quick stay</t>
+  </si>
+  <si>
+    <t>Needed a last-minute place to crash after a beer event in Alhambra. Found this place on Expedia and booked because of good reviews and an even better price. Service was friendly and our room was sufficient. The interior was clean and the building was quiet and low-key. I wasn't quite comfortable going into the slightly dark basement level for a bottle of water out of the vending machine, but other than that, it was a great value hotel for a quick stay. Nearby to many good restaurants and just a mile and a half from 38 Degrees Bar &amp; Grill, who has one of the best craft beer tap lists in the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Needed a last-minute place to crash after a beer event in Alhambra. Found this place on Expedia and booked because of good reviews and an even better price. Service was friendly and our room was sufficient. The interior was clean and the building was quiet and low-key. I wasn't quite comfortable going into the slightly dark basement level for a bottle of water out of the vending machine, but other than that, it was a great value hotel for a quick stay. Nearby to many good restaurants and just a mile and a half from 38 Degrees Bar &amp; Grill, who has one of the best craft beer tap lists in the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r178078095-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>178078095</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>monterey bay</t>
+  </si>
+  <si>
+    <t>i was here on buisness and my boss reserved me here. good stay, nice rooms. they were very clean and tidy and i just loved it. breakfast was good (actually pretty tastyy) also it was just plain out awesome and fabulous and i loved it so much!!!!!! VERY VERY NICE STAFF! YOLOMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>comfortinn Mont... c, General Manager at Comfort Inn Monterey Park, responded to this reviewResponded October 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2013</t>
+  </si>
+  <si>
+    <t>i was here on buisness and my boss reserved me here. good stay, nice rooms. they were very clean and tidy and i just loved it. breakfast was good (actually pretty tastyy) also it was just plain out awesome and fabulous and i loved it so much!!!!!! VERY VERY NICE STAFF! YOLOMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r174596972-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>174596972</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>** Great Hotel for Its Value **</t>
+  </si>
+  <si>
+    <t>Positive:  -Better price or lower price than other surrounding hotels. -Nice comfortable rooms (a few of them are small)-Safe area!! -Location is good ( no heavy traffic/cars)-Customer Service is average to great (depends on who is working) -Nice and Clean!-Better than other hotel near movie theater. Negatives: -Hotel building itself is small and compact (but room is good)-Small and compact parking space-Limited seatings at Breakfast due to hotel size-NO poolMoreShow less</t>
+  </si>
+  <si>
+    <t>Positive:  -Better price or lower price than other surrounding hotels. -Nice comfortable rooms (a few of them are small)-Safe area!! -Location is good ( no heavy traffic/cars)-Customer Service is average to great (depends on who is working) -Nice and Clean!-Better than other hotel near movie theater. Negatives: -Hotel building itself is small and compact (but room is good)-Small and compact parking space-Limited seatings at Breakfast due to hotel size-NO poolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r158753129-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>158753129</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Not bad at all</t>
+  </si>
+  <si>
+    <t>I was here for 4 days for businesses trip; the inn was located in a quiet area but closed many restaurants n shops.  I had a king bed room n the size is good enough for me.  The room has a small refrigerator n microwave.  The coffee maker is on the desk.  The TV is bigger than I expected about 42'. The inn comes with free breakfast, Internet n parking.  I found its very clean n comfortable to stay.  I was in room 112, if u worry to get a noise a/c, u can ask this room; quiet n not make much noise as some reviewer said.  For a 3 star hotel, I will say its a good place to stay.Yes the dining area is small and the desk chair is old but the space inside the room is bigMoreShow less</t>
+  </si>
+  <si>
+    <t>I was here for 4 days for businesses trip; the inn was located in a quiet area but closed many restaurants n shops.  I had a king bed room n the size is good enough for me.  The room has a small refrigerator n microwave.  The coffee maker is on the desk.  The TV is bigger than I expected about 42'. The inn comes with free breakfast, Internet n parking.  I found its very clean n comfortable to stay.  I was in room 112, if u worry to get a noise a/c, u can ask this room; quiet n not make much noise as some reviewer said.  For a 3 star hotel, I will say its a good place to stay.Yes the dining area is small and the desk chair is old but the space inside the room is bigMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r154216705-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>154216705</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Safe and Cozy</t>
+  </si>
+  <si>
+    <t>Had a business meeting in Downtown Los Angeles the next morning and did not want to be in a rush in the morning. Stayed here for one night. Room was clean, cozy, comfortable. Staff at the front was pleasant. Parking was on either sides of the hotel. Down the street are all kinds of yummy Asian Restaurants and other places to eat, Rite Aide and Ralphs if you need groceries. It was safe and not too far from Downtown. I was placed on the first floor facing the right side of the parking lot, not too bad. I did not hear alot of noise and my heater was fine. I would stay here again plus show your Triple A card and you get your discount!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Had a business meeting in Downtown Los Angeles the next morning and did not want to be in a rush in the morning. Stayed here for one night. Room was clean, cozy, comfortable. Staff at the front was pleasant. Parking was on either sides of the hotel. Down the street are all kinds of yummy Asian Restaurants and other places to eat, Rite Aide and Ralphs if you need groceries. It was safe and not too far from Downtown. I was placed on the first floor facing the right side of the parking lot, not too bad. I did not hear alot of noise and my heater was fine. I would stay here again plus show your Triple A card and you get your discount!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r144641638-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>144641638</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Very loud A/C and no where to sit in the room</t>
+  </si>
+  <si>
+    <t>Our room appeared to be clean and the bed was fine. However, the A/C sounded like a 747 jet engine taking off and the problem is that it changed noise tones every once in a while, which made it difficult to sleep. I was also disappointed that the room only had the desk chair. There was nowhere else to sit!!!! It's true the breakfast room only has three tables, but the food presentation and selection was fine. So you might be eating breakfast standing up if the breakfast room is full and if there is more than one person staying in your room you won't find a seat there either!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Our room appeared to be clean and the bed was fine. However, the A/C sounded like a 747 jet engine taking off and the problem is that it changed noise tones every once in a while, which made it difficult to sleep. I was also disappointed that the room only had the desk chair. There was nowhere else to sit!!!! It's true the breakfast room only has three tables, but the food presentation and selection was fine. So you might be eating breakfast standing up if the breakfast room is full and if there is more than one person staying in your room you won't find a seat there either!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r141021649-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>141021649</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Good location with clean rooms</t>
+  </si>
+  <si>
+    <t>Second time staying here, though the interval had been three years apart. Convenient location to the east side of LA. Safe neighbourhood (I lived in the vicinity before). Staffs helpful. Clean room. Ample parking spaces. Good that they could maintain the same quality all through the years. If you are looking for a no frills stay around the eastside this is it. Never having tried their breakfast so no comment though. The only grudge is that they now raised their prices by two folds since the last time I stayed (Maybe then they were new and under promotion), but still worth the value I must say.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r138155409-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>138155409</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Value for money/Small Room &amp; Breakfast area</t>
+  </si>
+  <si>
+    <t>Pro's1. Value for money 2. 30 minutes to Disney Land, Universal Studios, Santa Monica Beach and LAX3. Clean Rooms, Lobby and Parking lot4. Decent breakfastCon's:1. Small room (We stayed in a 2 queen bed room). There was not much space to move around2. Breakfast area is really small3. Internet connection was badLos Angeles traffic is very bad. So factor in extra 15 to 20 minutes to anywhere you want to drive. Hotel is located in an Asian neighborhood. Lots of Asian restaurants.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r127258953-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>127258953</t>
+  </si>
+  <si>
+    <t>04/04/2012</t>
+  </si>
+  <si>
+    <t>Worth it and more...</t>
+  </si>
+  <si>
+    <t>I stayed here for 9 days with my significant other and had no complaints at all. The hotel is very clean, comfortable, and has polite staff. The room was cleaned daily, they provide a variety of foods for breakfast, and has free WiFi. We were on the second floor. There were floors above us so sometimes we did hear noise above us but it wasn't common. We will definitely use this hotel again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r118807380-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>118807380</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>This is my first stay in Monterey Park, it's surprisingly good. It's very very close to great Chinese restaurants, not far from I-10; This hotel seems to be very well kept, and in better shape than some so-called 3-star hotels. The room is clean, the bed and bathroom are clean. I was planning to eat out anyways so the cheapy breakfast doesn't bother me. My smart phone got strong signal, and I don't even bother to use wifi. I like firm beds, and they got it. I will stay here next time, and I will recommend to my friends too.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r117337707-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>117337707</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>We liked it and would consider to stay here again.</t>
+  </si>
+  <si>
+    <t>We chose this place simply because we can have many options of chinese food and it's not far away from the attractions we planned to go (i.e., Universal Studio, Downtown, &amp; beach, etc.) The room was clean and the beds are comfortable. Double queen beds room is kind of small but it's not that bad. They offer free hot breakfast like waffle and eggs, which is very nice, in addition to regular cold breakfast. They also provide microwave and fridge in room. In general, we enjoyed the staying here and we recommend it!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r117013420-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>117013420</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>disliked this hotel</t>
+  </si>
+  <si>
+    <t>disliked this hotel. very disappointing with a free WiFi try to do my work online. their speed running very very slow all the time. unlike other hotel with WiFi has couple connection to choose. breakfast suck. look at the picture breakfast room only has three table if you come a little late no sit available and no place to walk in a 300 sqf area. bathtub water running slow try to cut water cost in my feeling. I prefer the old traditional Best Western with two story and the center big parking lot unlike this one it new model type and very cramped.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r99724572-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>99724572</t>
+  </si>
+  <si>
+    <t>03/10/2011</t>
+  </si>
+  <si>
+    <t>Second stay not as pleased</t>
+  </si>
+  <si>
+    <t>This trip, we booked a queen size bed room #217 (the internet special).  Much smaller than rooms with 2 queens/1 king.  Sink is in main room, close to bed.  Noisy if companion isn't on same sleep schedule.  Bed is in line with side of window so sunlight woke me as fan billowed drapes.  Bathroom door was very squeaky.  When reported to desk in AM so it could be remedied for next guests was brushed off "housekeeping will take care of it".  Well, it hadn't been fixed before we checked in!  Breakfast area is very small and staff was slow to fill coffee urns and food bowls.  Might not stay here again or at least book larger room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>This trip, we booked a queen size bed room #217 (the internet special).  Much smaller than rooms with 2 queens/1 king.  Sink is in main room, close to bed.  Noisy if companion isn't on same sleep schedule.  Bed is in line with side of window so sunlight woke me as fan billowed drapes.  Bathroom door was very squeaky.  When reported to desk in AM so it could be remedied for next guests was brushed off "housekeeping will take care of it".  Well, it hadn't been fixed before we checked in!  Breakfast area is very small and staff was slow to fill coffee urns and food bowls.  Might not stay here again or at least book larger room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r92036878-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>92036878</t>
+  </si>
+  <si>
+    <t>01/06/2011</t>
+  </si>
+  <si>
+    <t>Best Place near to Alhambra</t>
+  </si>
+  <si>
+    <t>I really liked this place..it's very convenient to Downtown LA, the rooms are really clean..the front desk guy at the night were really helpful..the breakfast is good..but it can still be improved ..it's less cost when compared with other places in this area...i would definitely recommend my friends to go to this one..</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r85722566-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>85722566</t>
+  </si>
+  <si>
+    <t>11/02/2010</t>
+  </si>
+  <si>
+    <t>clean and quiet</t>
+  </si>
+  <si>
+    <t>Pleasant front desk staff and very accommodating when asked for extended check out.  Room, especially bathroom, clean.  I thought bed was very comfortable, but husband didn't.  Shower had good water pressure.  Fast wi-fi.  Parking lot spaces are narrow and there are no trash cans in lot, so cleaning car after road trip difficult.  Breakfast area small and waffle iron not releasing waffles easily.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r8433224-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>8433224</t>
+  </si>
+  <si>
+    <t>08/15/2007</t>
+  </si>
+  <si>
+    <t>Excellent value!</t>
+  </si>
+  <si>
+    <t>This is a newer property with very clean and nicely furnished rooms. The marble look of the tiles and sink, new TV, and new AC were welcome touches. All rooms have interior corridors, which is more secure than a typical motel room, and the neighborhood is safe, with many Asian restaurants located nearby. I paid $80 a night, which I felt was an excellent value for the quality of the room.</t>
+  </si>
+  <si>
+    <t>August 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1731,3433 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>280</v>
+      </c>
+      <c r="X38" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>307</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>308</v>
+      </c>
+      <c r="X42" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>308</v>
+      </c>
+      <c r="X43" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>317</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>318</v>
+      </c>
+      <c r="J44" t="s">
+        <v>319</v>
+      </c>
+      <c r="K44" t="s">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s">
+        <v>321</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>324</v>
+      </c>
+      <c r="J45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" t="s">
+        <v>326</v>
+      </c>
+      <c r="L45" t="s">
+        <v>327</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>331</v>
+      </c>
+      <c r="J46" t="s">
+        <v>332</v>
+      </c>
+      <c r="K46" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" t="s">
+        <v>339</v>
+      </c>
+      <c r="K47" t="s">
+        <v>340</v>
+      </c>
+      <c r="L47" t="s">
+        <v>341</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>342</v>
+      </c>
+      <c r="O47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" t="s">
+        <v>345</v>
+      </c>
+      <c r="K48" t="s">
+        <v>346</v>
+      </c>
+      <c r="L48" t="s">
+        <v>347</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>348</v>
+      </c>
+      <c r="O48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>350</v>
+      </c>
+      <c r="J49" t="s">
+        <v>351</v>
+      </c>
+      <c r="K49" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" t="s">
+        <v>353</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>354</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" t="s">
+        <v>359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>362</v>
+      </c>
+      <c r="J51" t="s">
+        <v>363</v>
+      </c>
+      <c r="K51" t="s">
+        <v>364</v>
+      </c>
+      <c r="L51" t="s">
+        <v>365</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>367</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>366</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" t="s">
+        <v>374</v>
+      </c>
+      <c r="K53" t="s">
+        <v>375</v>
+      </c>
+      <c r="L53" t="s">
+        <v>376</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>377</v>
+      </c>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>379</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s">
+        <v>383</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>384</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>385</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>386</v>
+      </c>
+      <c r="J55" t="s">
+        <v>387</v>
+      </c>
+      <c r="K55" t="s">
+        <v>388</v>
+      </c>
+      <c r="L55" t="s">
+        <v>389</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" t="s">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s">
+        <v>395</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s">
+        <v>82</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Joi I</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Paulmc37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r563952965-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Shirley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r551011194-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>D B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r508253685-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>Since my last review couple of years back, this place is gone way down. If you are staying for a couple of days, you will have to endure the really very very dirty carpets throughout the motel. It is worse in the rooms. I checked out several and they were all very very dirty with spots all over. You will not feel like walking bear feet in the room. Other than that the houskeeping does a good job of cleaning the bath room and doing the beds. The breakfast is decent but in a very small space. Location is good if you like chinese/thai food. Also, very thin walls - you will hear everything next door.More</t>
   </si>
   <si>
+    <t>Lani88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r502363147-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>With Best Western getting out of Monterey Park market at their location near Atlantic Square, and Ramada's exit quite some time ago of Lincoln Plaza.  Comfort Inn is the only remaining chain hotel at Monterey Park if you wish stay near by the Atlantic Bivd./ Garvey Ave. area.  It is a no-thrill facility, a place to lay your head for the night with free parking and continental breakfast provided.  The attitude of the front desk personnel can be best described as indifference.  It definitely is NOT worth staying at $170 per night on our recent trip this past week at Monterey Park. The 1 King bedroom and bathroom are of decent size. The wash basin is located right off the entrance to the room, separate from the bathroom (toilet and shower/tub), which works fine for us, as one of us could get ready with washing face/brushing teeth/blow-drying hair while the other person is using the toilet or showering.More</t>
   </si>
   <si>
+    <t>Ruth G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r494717548-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>manilabelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r481149083-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Traacy1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r474610605-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Angbas81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r471824340-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -343,6 +370,9 @@
   </si>
   <si>
     <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ed_Uyeshima</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r455553054-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -370,6 +400,9 @@
 Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be...I must be getting used to Monterey Park as my go-to place when visiting L.A. with my partner, since it's close enough to everything in the city yet far enough away to be a good budget option. After all, this relatively nondescript place cost only $140 per night, but its convenient location on South Atlantic meant you can get on either the San Bernardino Freeway (I-10) or the Pomona Freeway (SR 60) pretty easily and get to all points west efficiently. In L.A., easy navigation is everything, especially before you get to the Slauson cut-off where they cut off your Slauson.At least that's what Tea Time movie host Art Fern used to say on Johnny Carson anyway. Anyhow, we got there pretty early and kept waiting for a Chinese man to finish his reservation at the front desk since he was apparently booking up rooms for quite a large family wedding. When it was finally my turn, we were given a decent enough room on the first floor, even though there appeared to be a midnight track meet being held above us. Damn kids. Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be the smallest room with only three tables available. That meant waiting around with your plate in hand as you hope people will eventually give up their tables. Yeah, as if.More</t>
   </si>
   <si>
+    <t>robertrT4940ZT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r447323270-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -389,6 +422,9 @@
   </si>
   <si>
     <t>The room was very small, with 2 queen beds, a large desk and a desk chair, a cabinet that had 2 or 3 drawers and held a small micro and refrigerator, a flat screen TV on the wall.  The bathroom had a tub and toilet,  The small sink was outside in the entryway next to the open closet.  The carpet was stained in several places.  The breakfast was ample and included hot items, but the breakfast room was very small - three small tables and 9 chairs for a three-story building.  The yogurt ran out an hour before the close of breakfast and was not replenished.  The hallway carpet was worn and stained. There is really no lobby, just a check-in desk and an elevator, which could also be accessed from the rear through a basement hallway.   To enter through the front door, there was a choice of stairs or a very steep driveway.More</t>
+  </si>
+  <si>
+    <t>chelsseo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r446474050-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -425,6 +461,9 @@
 Don't know where all of the positive reviews come from...When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!This receptionist named May allowed us to extend our check out time till 12 pm The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .Save yourself from all of this hassle and go to another hotel . This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . Don't know where all of the positive reviews come from - everyone was unfriendly here - no one smiled at us BYE I'M OUTTA HEREMore</t>
   </si>
   <si>
+    <t>Joveecarl11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r427645920-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -443,6 +482,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Marissa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r426580543-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -458,6 +500,9 @@
     <t>All the businesses around this place were in Japanese which made me wonder if we crossed the ocean somehow.  The place is ran by India, Indians which were friendly.  Room is very clean and bed is comfortable. The bathroom was average with ok water pressure for a shower.</t>
   </si>
   <si>
+    <t>Ron C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r425343213-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -476,6 +521,9 @@
     <t>For a nonsmoking hotel, the first thing I noticed was the smoke odor.  After checking in I walked to my room and noticed the filthy carpets.  Once I was in the room I noticed more stains in the carpet.  I had to rush out for dinner and Disneyland.  I returned and totally crashed but noticed the fan wasn't working on the AC unit.  As I was getting ready for my Monday this was the worst thing I noticed: all the towels, washcloths, and hand towels were grey and very dingy!!! I advised the front desk of all issues and their response was the washer must be not working correct. I had 2 weeks reserved but checked out immediately after I talked to the front desk and cancelled my reservation.More</t>
   </si>
   <si>
+    <t>Adrian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r376119840-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -497,6 +545,9 @@
     <t>I had Business in Monterey Park So I check in the room was filthy the bed was unmade there was trash in all of the receptacles. I returned to the Front desk and informed the clerk and he immediately assigned me another room. This is where it gets weird. I go into La for dinner with friends and upon my return to the hotel my room door is open. I double checked to make sure the room was locked when AI left. I had left an IPad in the room charging and because my room was at the end of the hall and my door was not visible. The two end rooms are in a alcove .All of my items were intact in my room.More</t>
   </si>
   <si>
+    <t>Arturo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r374495198-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -512,6 +563,9 @@
     <t xml:space="preserve">Traveling to downtown LA can be overwhelming during rush hour. This hotel was quick access and comfortable. It is an older hotel and it does need a lot of taking care of, and a bit noisy in the morning . However, It's a clean bed and your basic amenities. </t>
   </si>
   <si>
+    <t>De Anna S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r373218218-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -530,6 +584,9 @@
     <t>After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the...After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the clerk my bill and asked if it was broken when the bill was printed and she didn't say a word! Needless to say I will not stay here again or recommend this hotel to anyone. If you choose to stay here there is a great pizza place named Shakey's Pizza, Boston Market, IHOP, and Marie Callendars restaurant nearby. More</t>
   </si>
   <si>
+    <t>jimmyontheline</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r360501234-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -548,6 +605,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r357716850-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -566,6 +626,9 @@
     <t>Stayed here on a Sunday night, hotel was about 3/4 full. Good location just east of Downtown LA, between the 10 and 60 Freeways. Decent area, many Asian restaurants and stores within walking distance. Tight, small parking lot - good luck parking your behemoth SUVs. Front desk staff could be more friendly. Asked for upper floor room - was assigned 2nd floor room instead - as a result, I endured a long night of what must have been a sumo wrestling meet or a furniture moving contest in the room above me - very unpleasant, resulting in a poor nights' sleep. My King room was small but clean. Bed was comfortable. Hallway carpet on 2nd floor was filthy and disgusting. Overall, I was disappointed and do not plan on returning.More</t>
   </si>
   <si>
+    <t>Hector G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r350714088-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -584,6 +647,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Quinnfuzzymom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r327894310-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -605,6 +671,9 @@
     <t>We again recently stayed here when we visited our daughter in Monterey Park.    First time was September 2014 and this time was November 2015 for one night with a Las Vegas cousin and her husband who drove the 4 of us to LA.  Our rooms were across from each other as I had requested when making the reservation and the included breakfast met our needs.  Waffles, scrambled eggs, sausage, limited assortment of cold cereals, orange and apple juices, oatmeal, yogurt, fresh fruits, and coffee are all included. When you arrive, I recommend that you park in one of the parking spots on either side of the hotel and walk into the front entrance to avoid any damage to the underside of your car.More</t>
   </si>
   <si>
+    <t>Jennifer L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r322953405-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -623,6 +692,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>miamouse66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r316963171-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -644,6 +716,9 @@
     <t>I must say ive been to alot of hotels lately and i must say this hotel was great. Everything about it. I loved the beds with all the pillows. The fact that we could take our breakfast back to our rooms. Was so cool. Most places you have to eat it in the breakfast area. Only thing was there ice machine. Kind of scary. You have ro go to the basement to get the ice. At night no one is down there so if your a female it could be scary. I was. But everything else was great. Thank you. Will go back and i will let my friends know how nice this hotel really is.More</t>
   </si>
   <si>
+    <t>JanetteCeleste</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r285177151-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -662,6 +737,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>jdkittrell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r278260537-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -683,6 +761,9 @@
     <t>This is an older hotel, but it is in a nice, clean safe area around L.A. If you are fan of Asian cuisine and culture, this is a perfect place. I was very concerned that my stay would be horrible when the first words I hear from the desk clerk were, "Just give me your license." She did not greet me at all, did not smile, and was short in her answers to me. The rooms are hotel rooms; there are not suites. There is not really a lobby area, and the breakfast "nook" can only accommodate 12 guests at a time. The rooms were comfortable, and the rest of the staff was most pleasant. I would stay here again!More</t>
   </si>
   <si>
+    <t>kleemc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r268215279-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -701,6 +782,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>RainbowCowboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r258264257-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -722,6 +806,9 @@
     <t>We stayed here after returning from the Getty Center and we were surprised at how clean this place was.  I've been to Monterey Park before and it wasn't a very clean city overall.  There was adequate parking which we love.  The check-in process was fair as there was a line.  The room was clean and in working order.  The building wasn't new but it looked like there was a fresh coat of paint which helps.  The sleep was comfortable except the previous guest programmed the alarm clock to go out at 12:00 am.  It woke us up and annoyed the hell out of me.  But that wasn't the hotel's fault.  The check-out process was quick and easy.  The breakfast was actually pretty good except the breakfast area was tiny.  We had to take our breakfast on the go.I like the location of this hotel as it was close to many restaurants.  Would stay here again if I venture that way.More</t>
   </si>
   <si>
+    <t>ishieh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r257546191-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -761,6 +848,9 @@
     <t>Stayed here for 6 nights in a King bed room. Location is good with lots of eating options walking distance away. Has ample parking and check in was quick. Rooms are nice with comfortable beds but can get noisy as walls are thin and you can hear the upstairs guests walking around. Asked and got a room change to an upstairs room where did not have noise trouble at night. Mr Suren the Manager was very helpful and greets all guests with a smile. Breakfast room though small, has a lot of options including waffles, hot scrambled eggs and sausages, etc., and the lady working there is quick to replanish items quickly. Overall the place is clean with good wifi and highly recomended.More</t>
   </si>
   <si>
+    <t>Detter3206</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r232314358-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -779,6 +869,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>AdamD879</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r229798977-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -794,6 +887,9 @@
     <t xml:space="preserve">Stayed 1 night, 2 adults, 2 teenage children. A good hotel for a stop over night. Rooms a bit small for extended stays with family.Rooms are clean and well appointed.Free breakfast is good and coffee is hot!Free parking a big plus.Recommended. </t>
   </si>
   <si>
+    <t>Donald Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r228998552-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -812,6 +908,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Majosv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r226455445-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -830,6 +929,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>JulianWLHung</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r216220818-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -845,6 +947,9 @@
     <t>My first day arrival in Los Angeles.  Very nice stay, I came with my child and my sister's family, stop for a night before heading towards theme parks and other locations.  Hotel staff are friendly and helpful, rooms are tidy and clean, quiet in the evening.  Breakfast corner is a bit small, only 3 tables and 10 seats, so it's better to get there early to avoid pack of guests, breakfast is served at 6:30am with enough choices: waffle, muffin, cereal, toast, sausage &amp; eggs, coffee, juice &amp; water.  There is free parking lot, good for family or business trip.  Highly recommend!</t>
   </si>
   <si>
+    <t>86MissyJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r214131133-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -860,6 +965,9 @@
     <t>Stayed here for an evening while in the Los Angeles area. The staff was very friendly and helpful. Our room was very nice, clean and comfortable, with a lot of space. The breakfast was fine to get you started on your day. Close drive to a lot of attractions, would recommend staying here if in the area.</t>
   </si>
   <si>
+    <t>Kyle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r209166147-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -885,6 +993,9 @@
   </si>
   <si>
     <t>I stayed here for a week on business,  I would highly recommend this hotel. I have stayed at many many hotels and this hotel is going to be a regular on our scheduled visits to the area. The rooms are updated,  grear bed and linens, large flat screen tv with plenty of channels,  hot water, great water pressure in the shower, microwave and refrigerator in the room. The breakfast is not a restaurant style buffett but has plenty for breakfast like eggs, sausage,  coffee, apple juice,  orange juice,  water, milk, all konds of breads, yogurt, boiled eggs,  waffles and fresh fruit. The staff is friendly,  great parking lot, close to all the freeways I had made it from the hotel to Hollywood blvd in 20 min. No funky smells. I think it is acceptable and very safe area. I would recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>PokeyPaddler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r192771833-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -912,6 +1023,9 @@
 There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave...Difficult to find, cramped room space, tough communication skills from some staff: all  of these cause us to not want to ever return to this location.The room was clean, and the furnishings in the two bedded room were fine, but with little space to put our bags.  We could not move from the bed to the bathroom or the exit door unless one of us was out of the room or sitting by the head of a bed. The rooms are best served for one person only. We noticed several families staying there; quite a challenge regarding movement in the rooms I should imagine. Even then, the bathroom door blocks movement in and out of the room and in and out of the doorway to the hall.  The bathroom is very small, too small for a wheelchair, yet all the rooms seem to have a wheelchair accessible size door; this door opens out,into the room's very narrow entryway.    We had to pass the water leaking into a pail in the hall, from an overhead pipe, each time we left the room to leave the floor we were staying on; rather unpleasant. There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave up on trying to get a little food and left.  I didn't make coffee in the room, with the little, individual coffeemaker because the cleaning staff had left the coffeemaker filled with water; I had no idea how long that water had been in there; I decided I did not want to clean it out for them either.The location is more than a mile from the busy Asian shopping/restaurant section of town, but only 1 block to a couple of decent Asian restaurants.  We were quite disappointed that we were unable to have any dim sum for dinner the night we were there, as so highly recommended by fellow travelers on this Tripadvisor website.  They forgot to mention that these restaurants only serve dim sum at lunch time- never at dinner time.  So, dim sum lovers be advised; arrive intime for lunch.  It is true that it is only 20 to 30 minutes to the tourist sights of LA, via the Interstate 10, which is convenient.More</t>
   </si>
   <si>
+    <t>Sylvia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r190513725-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -927,6 +1041,9 @@
     <t>Had a very pleasant stay here. The staff was very welcoming and accomodating. The room was clean and the housekeeping staff did an excellent job of keeping it that way. Had a flat screen TV, refrigerator, microwave and coffee machine with coffee and tea bags. The breakfast bar was better than I expected and included eggs, sausage, make-your-own waffles, choice of juices, fresh fruit, pastries, yogurt, cereals, oatmeal, and hard boiled eggs. They keep the breakfast area very clean and stock items that are running out. The entire look of the hotel is professional, modern, fresh. I'd definitely come back again</t>
   </si>
   <si>
+    <t>MissFranberry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r181426096-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -948,6 +1065,9 @@
     <t>Needed a last-minute place to crash after a beer event in Alhambra. Found this place on Expedia and booked because of good reviews and an even better price. Service was friendly and our room was sufficient. The interior was clean and the building was quiet and low-key. I wasn't quite comfortable going into the slightly dark basement level for a bottle of water out of the vending machine, but other than that, it was a great value hotel for a quick stay. Nearby to many good restaurants and just a mile and a half from 38 Degrees Bar &amp; Grill, who has one of the best craft beer tap lists in the city.More</t>
   </si>
   <si>
+    <t>YOLOMAN69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r178078095-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -975,6 +1095,9 @@
     <t>i was here on buisness and my boss reserved me here. good stay, nice rooms. they were very clean and tidy and i just loved it. breakfast was good (actually pretty tastyy) also it was just plain out awesome and fabulous and i loved it so much!!!!!! VERY VERY NICE STAFF! YOLOMore</t>
   </si>
   <si>
+    <t>reviews45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r174596972-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -993,6 +1116,9 @@
     <t>Positive:  -Better price or lower price than other surrounding hotels. -Nice comfortable rooms (a few of them are small)-Safe area!! -Location is good ( no heavy traffic/cars)-Customer Service is average to great (depends on who is working) -Nice and Clean!-Better than other hotel near movie theater. Negatives: -Hotel building itself is small and compact (but room is good)-Small and compact parking space-Limited seatings at Breakfast due to hotel size-NO poolMore</t>
   </si>
   <si>
+    <t>sweetmarch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r158753129-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1011,6 +1137,9 @@
     <t>I was here for 4 days for businesses trip; the inn was located in a quiet area but closed many restaurants n shops.  I had a king bed room n the size is good enough for me.  The room has a small refrigerator n microwave.  The coffee maker is on the desk.  The TV is bigger than I expected about 42'. The inn comes with free breakfast, Internet n parking.  I found its very clean n comfortable to stay.  I was in room 112, if u worry to get a noise a/c, u can ask this room; quiet n not make much noise as some reviewer said.  For a 3 star hotel, I will say its a good place to stay.Yes the dining area is small and the desk chair is old but the space inside the room is bigMore</t>
   </si>
   <si>
+    <t>IEBEV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r154216705-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1032,6 +1161,9 @@
     <t>Had a business meeting in Downtown Los Angeles the next morning and did not want to be in a rush in the morning. Stayed here for one night. Room was clean, cozy, comfortable. Staff at the front was pleasant. Parking was on either sides of the hotel. Down the street are all kinds of yummy Asian Restaurants and other places to eat, Rite Aide and Ralphs if you need groceries. It was safe and not too far from Downtown. I was placed on the first floor facing the right side of the parking lot, not too bad. I did not hear alot of noise and my heater was fine. I would stay here again plus show your Triple A card and you get your discount!!More</t>
   </si>
   <si>
+    <t>_Mundo_Traveler_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r144641638-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1053,6 +1185,9 @@
     <t>Our room appeared to be clean and the bed was fine. However, the A/C sounded like a 747 jet engine taking off and the problem is that it changed noise tones every once in a while, which made it difficult to sleep. I was also disappointed that the room only had the desk chair. There was nowhere else to sit!!!! It's true the breakfast room only has three tables, but the food presentation and selection was fine. So you might be eating breakfast standing up if the breakfast room is full and if there is more than one person staying in your room you won't find a seat there either!!More</t>
   </si>
   <si>
+    <t>blackshark3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r141021649-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1071,6 +1206,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>DTHIRU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r138155409-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1089,6 +1227,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>jessy23r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r127258953-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1107,6 +1248,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>ken240</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r118807380-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1125,6 +1269,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>TY_Luo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r117337707-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1143,6 +1290,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>norman T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r117013420-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1158,6 +1308,9 @@
     <t>disliked this hotel. very disappointing with a free WiFi try to do my work online. their speed running very very slow all the time. unlike other hotel with WiFi has couple connection to choose. breakfast suck. look at the picture breakfast room only has three table if you come a little late no sit available and no place to walk in a 300 sqf area. bathtub water running slow try to cut water cost in my feeling. I prefer the old traditional Best Western with two story and the center big parking lot unlike this one it new model type and very cramped.</t>
   </si>
   <si>
+    <t>bjt48331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r99724572-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1179,6 +1332,9 @@
     <t>This trip, we booked a queen size bed room #217 (the internet special).  Much smaller than rooms with 2 queens/1 king.  Sink is in main room, close to bed.  Noisy if companion isn't on same sleep schedule.  Bed is in line with side of window so sunlight woke me as fan billowed drapes.  Bathroom door was very squeaky.  When reported to desk in AM so it could be remedied for next guests was brushed off "housekeeping will take care of it".  Well, it hadn't been fixed before we checked in!  Breakfast area is very small and staff was slow to fill coffee urns and food bowls.  Might not stay here again or at least book larger room.More</t>
   </si>
   <si>
+    <t>rockstar_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r92036878-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1213,6 +1369,9 @@
   </si>
   <si>
     <t>October 2010</t>
+  </si>
+  <si>
+    <t>im_blue</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r8433224-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1735,43 +1894,47 @@
       <c r="A2" t="n">
         <v>55642</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>31773</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1785,50 +1948,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55642</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1842,50 +2009,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55642</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>29312</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1899,50 +2070,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55642</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>61701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1960,56 +2135,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55642</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>131218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2029,50 +2208,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55642</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>98704</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2092,50 +2275,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55642</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2149,50 +2336,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55642</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>131220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2210,50 +2401,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55642</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>131221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2273,50 +2468,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55642</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>131222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2336,50 +2535,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55642</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2399,50 +2602,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55642</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>131224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2456,50 +2663,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55642</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>131225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2513,50 +2724,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55642</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>27323</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2570,50 +2785,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55642</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>8015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2627,50 +2846,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55642</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>28416</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2690,50 +2913,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55642</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>39739</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2747,50 +2974,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55642</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>131226</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2804,50 +3035,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55642</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>131227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2867,50 +3102,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55642</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>466</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2930,50 +3169,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55642</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>19094</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2993,50 +3236,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55642</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3054,50 +3301,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55642</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3642</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3115,50 +3366,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55642</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3172,50 +3427,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55642</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>131230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3229,50 +3488,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55642</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>16550</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3292,50 +3555,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55642</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>131231</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3349,50 +3616,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55642</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131232</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3412,50 +3683,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55642</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>131233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3473,50 +3748,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55642</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>61701</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3536,50 +3815,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55642</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>131234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3597,41 +3880,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55642</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>131235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -3650,50 +3937,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55642</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3707,50 +3998,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55642</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>131236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3768,50 +4063,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55642</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3825,50 +4124,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>55642</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>131238</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3892,50 +4195,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>55642</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>100121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3947,56 +4254,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="X38" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="Y38" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>55642</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4020,50 +4331,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>55642</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>17669</v>
+      </c>
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4087,50 +4402,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>55642</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>131240</v>
+      </c>
+      <c r="C41" t="s">
+        <v>333</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4154,50 +4473,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>55642</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131241</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="J42" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="K42" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4219,56 +4542,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="X42" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="Y42" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>55642</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131242</v>
+      </c>
+      <c r="C43" t="s">
+        <v>351</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="J43" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="K43" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4290,47 +4617,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="X43" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="Y43" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>55642</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>131243</v>
+      </c>
+      <c r="C44" t="s">
+        <v>358</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="J44" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4359,50 +4690,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>55642</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>131244</v>
+      </c>
+      <c r="C45" t="s">
+        <v>365</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="J45" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4426,50 +4761,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>55642</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>131245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="J46" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4493,50 +4832,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>55642</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>131246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>381</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="O47" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4560,50 +4903,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>55642</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>131247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>388</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="J48" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="K48" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="L48" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4627,50 +4974,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>55642</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>131248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="J49" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4694,50 +5045,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>55642</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>131249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>402</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="J50" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="K50" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4761,50 +5116,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>55642</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>131250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>409</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="J51" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="K51" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="L51" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4824,50 +5183,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>55642</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>131251</v>
+      </c>
+      <c r="C52" t="s">
+        <v>416</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -4887,50 +5250,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>55642</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>131252</v>
+      </c>
+      <c r="C53" t="s">
+        <v>422</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="J53" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="K53" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="L53" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -4954,50 +5321,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>55642</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>131253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>430</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="J54" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5021,50 +5392,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>55642</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>131251</v>
+      </c>
+      <c r="C55" t="s">
+        <v>422</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="J55" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="K55" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5088,50 +5463,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55642</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>131254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>443</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="K56" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="O56" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5155,7 +5534,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
@@ -1956,7 +1956,7 @@
         <v>55642</v>
       </c>
       <c r="B3" t="n">
-        <v>131217</v>
+        <v>161974</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2149,7 +2149,7 @@
         <v>55642</v>
       </c>
       <c r="B6" t="n">
-        <v>131218</v>
+        <v>161975</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -2283,7 +2283,7 @@
         <v>55642</v>
       </c>
       <c r="B8" t="n">
-        <v>131219</v>
+        <v>161976</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -2344,7 +2344,7 @@
         <v>55642</v>
       </c>
       <c r="B9" t="n">
-        <v>131220</v>
+        <v>161977</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -2409,7 +2409,7 @@
         <v>55642</v>
       </c>
       <c r="B10" t="n">
-        <v>131221</v>
+        <v>161978</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -2476,7 +2476,7 @@
         <v>55642</v>
       </c>
       <c r="B11" t="n">
-        <v>131222</v>
+        <v>161979</v>
       </c>
       <c r="C11" t="s">
         <v>118</v>
@@ -2543,7 +2543,7 @@
         <v>55642</v>
       </c>
       <c r="B12" t="n">
-        <v>131223</v>
+        <v>161980</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -2610,7 +2610,7 @@
         <v>55642</v>
       </c>
       <c r="B13" t="n">
-        <v>131224</v>
+        <v>161981</v>
       </c>
       <c r="C13" t="s">
         <v>134</v>
@@ -2671,7 +2671,7 @@
         <v>55642</v>
       </c>
       <c r="B14" t="n">
-        <v>131225</v>
+        <v>161982</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
@@ -2982,7 +2982,7 @@
         <v>55642</v>
       </c>
       <c r="B19" t="n">
-        <v>131226</v>
+        <v>161983</v>
       </c>
       <c r="C19" t="s">
         <v>175</v>
@@ -3043,7 +3043,7 @@
         <v>55642</v>
       </c>
       <c r="B20" t="n">
-        <v>131227</v>
+        <v>161984</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
@@ -3244,7 +3244,7 @@
         <v>55642</v>
       </c>
       <c r="B23" t="n">
-        <v>131228</v>
+        <v>161985</v>
       </c>
       <c r="C23" t="s">
         <v>203</v>
@@ -3374,7 +3374,7 @@
         <v>55642</v>
       </c>
       <c r="B25" t="n">
-        <v>131229</v>
+        <v>161986</v>
       </c>
       <c r="C25" t="s">
         <v>218</v>
@@ -3435,7 +3435,7 @@
         <v>55642</v>
       </c>
       <c r="B26" t="n">
-        <v>131230</v>
+        <v>161987</v>
       </c>
       <c r="C26" t="s">
         <v>226</v>
@@ -3563,7 +3563,7 @@
         <v>55642</v>
       </c>
       <c r="B28" t="n">
-        <v>131231</v>
+        <v>161988</v>
       </c>
       <c r="C28" t="s">
         <v>241</v>
@@ -3624,7 +3624,7 @@
         <v>55642</v>
       </c>
       <c r="B29" t="n">
-        <v>131232</v>
+        <v>161989</v>
       </c>
       <c r="C29" t="s">
         <v>248</v>
@@ -3691,7 +3691,7 @@
         <v>55642</v>
       </c>
       <c r="B30" t="n">
-        <v>131233</v>
+        <v>161990</v>
       </c>
       <c r="C30" t="s">
         <v>256</v>
@@ -3823,7 +3823,7 @@
         <v>55642</v>
       </c>
       <c r="B32" t="n">
-        <v>131234</v>
+        <v>161991</v>
       </c>
       <c r="C32" t="s">
         <v>270</v>
@@ -3888,7 +3888,7 @@
         <v>55642</v>
       </c>
       <c r="B33" t="n">
-        <v>131235</v>
+        <v>161992</v>
       </c>
       <c r="C33" t="s">
         <v>277</v>
@@ -4006,7 +4006,7 @@
         <v>55642</v>
       </c>
       <c r="B35" t="n">
-        <v>131236</v>
+        <v>161993</v>
       </c>
       <c r="C35" t="s">
         <v>290</v>
@@ -4071,7 +4071,7 @@
         <v>55642</v>
       </c>
       <c r="B36" t="n">
-        <v>131237</v>
+        <v>161994</v>
       </c>
       <c r="C36" t="s">
         <v>297</v>
@@ -4132,7 +4132,7 @@
         <v>55642</v>
       </c>
       <c r="B37" t="n">
-        <v>131238</v>
+        <v>161995</v>
       </c>
       <c r="C37" t="s">
         <v>303</v>
@@ -4268,7 +4268,7 @@
         <v>55642</v>
       </c>
       <c r="B39" t="n">
-        <v>131239</v>
+        <v>161996</v>
       </c>
       <c r="C39" t="s">
         <v>319</v>
@@ -4410,7 +4410,7 @@
         <v>55642</v>
       </c>
       <c r="B41" t="n">
-        <v>131240</v>
+        <v>161997</v>
       </c>
       <c r="C41" t="s">
         <v>333</v>
@@ -4481,7 +4481,7 @@
         <v>55642</v>
       </c>
       <c r="B42" t="n">
-        <v>131241</v>
+        <v>161998</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -4556,7 +4556,7 @@
         <v>55642</v>
       </c>
       <c r="B43" t="n">
-        <v>131242</v>
+        <v>161999</v>
       </c>
       <c r="C43" t="s">
         <v>351</v>
@@ -4631,7 +4631,7 @@
         <v>55642</v>
       </c>
       <c r="B44" t="n">
-        <v>131243</v>
+        <v>162000</v>
       </c>
       <c r="C44" t="s">
         <v>358</v>
@@ -4698,7 +4698,7 @@
         <v>55642</v>
       </c>
       <c r="B45" t="n">
-        <v>131244</v>
+        <v>162001</v>
       </c>
       <c r="C45" t="s">
         <v>365</v>
@@ -4769,7 +4769,7 @@
         <v>55642</v>
       </c>
       <c r="B46" t="n">
-        <v>131245</v>
+        <v>162002</v>
       </c>
       <c r="C46" t="s">
         <v>373</v>
@@ -4840,7 +4840,7 @@
         <v>55642</v>
       </c>
       <c r="B47" t="n">
-        <v>131246</v>
+        <v>162003</v>
       </c>
       <c r="C47" t="s">
         <v>381</v>
@@ -4911,7 +4911,7 @@
         <v>55642</v>
       </c>
       <c r="B48" t="n">
-        <v>131247</v>
+        <v>162004</v>
       </c>
       <c r="C48" t="s">
         <v>388</v>
@@ -4982,7 +4982,7 @@
         <v>55642</v>
       </c>
       <c r="B49" t="n">
-        <v>131248</v>
+        <v>162005</v>
       </c>
       <c r="C49" t="s">
         <v>395</v>
@@ -5053,7 +5053,7 @@
         <v>55642</v>
       </c>
       <c r="B50" t="n">
-        <v>131249</v>
+        <v>162006</v>
       </c>
       <c r="C50" t="s">
         <v>402</v>
@@ -5124,7 +5124,7 @@
         <v>55642</v>
       </c>
       <c r="B51" t="n">
-        <v>131250</v>
+        <v>162007</v>
       </c>
       <c r="C51" t="s">
         <v>409</v>
@@ -5191,7 +5191,7 @@
         <v>55642</v>
       </c>
       <c r="B52" t="n">
-        <v>131251</v>
+        <v>162008</v>
       </c>
       <c r="C52" t="s">
         <v>416</v>
@@ -5258,7 +5258,7 @@
         <v>55642</v>
       </c>
       <c r="B53" t="n">
-        <v>131252</v>
+        <v>131232</v>
       </c>
       <c r="C53" t="s">
         <v>422</v>
@@ -5329,7 +5329,7 @@
         <v>55642</v>
       </c>
       <c r="B54" t="n">
-        <v>131253</v>
+        <v>162009</v>
       </c>
       <c r="C54" t="s">
         <v>430</v>
@@ -5400,7 +5400,7 @@
         <v>55642</v>
       </c>
       <c r="B55" t="n">
-        <v>131251</v>
+        <v>131232</v>
       </c>
       <c r="C55" t="s">
         <v>422</v>
@@ -5471,7 +5471,7 @@
         <v>55642</v>
       </c>
       <c r="B56" t="n">
-        <v>131254</v>
+        <v>162010</v>
       </c>
       <c r="C56" t="s">
         <v>443</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_126.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Joi I</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r610647001-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>32738</t>
+  </si>
+  <si>
+    <t>634893</t>
+  </si>
+  <si>
+    <t>610647001</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Nice, affordable accommodations</t>
+  </si>
+  <si>
+    <t>It was a clean and pretty large room. The reservation was affordable and the front desk worked to accommodate me when I requested a room change. I appreciated that. The location was close to a lot of good dinner options as well.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r582100950-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>582100950</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient location for food </t>
+  </si>
+  <si>
+    <t>We had a two beds room. Breakfast was provided but there were not enough room for all guests. Restaurants were across the street, down the street, more were available 5 minutes drive away on garvey avenue, mostly Asian food. About 15ms to Los Angeles downtown without congestion. For the convenience, we would consider it when we go LA again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r576708419-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>576708419</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Very nice and pleasant stay</t>
+  </si>
+  <si>
+    <t>We stayed at Comfort Inn Monterey Park for nine days and had a really nice stay. The room was great and the staff were nice and helpful. Breakfast was ok, but very plain. They should definitely get some more tables in the restaurant area, most mornings we had to wait for a while to get an open table. But other than that I do not have any complains about our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at Comfort Inn Monterey Park for nine days and had a really nice stay. The room was great and the staff were nice and helpful. Breakfast was ok, but very plain. They should definitely get some more tables in the restaurant area, most mornings we had to wait for a while to get an open table. But other than that I do not have any complains about our stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r564979978-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
-    <t>32738</t>
-  </si>
-  <si>
-    <t>634893</t>
-  </si>
-  <si>
     <t>564979978</t>
   </si>
   <si>
@@ -177,15 +243,9 @@
     <t xml:space="preserve">Clean, quiet. I had just traveled all day and they let me check in early which was so great.I had a couple of gift cards and at first they weren’t going to honor them which was weird - I don’t really know why. Then they changed their minds.It’s not super fancy but it’s in a nice clean neighborhood and there are lots of restaurants really close by - walking distance. Perfect for a short stay </t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Paulmc37</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r563952965-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -207,9 +267,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Shirley R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r551011194-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -228,10 +285,40 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>D B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r531169350-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>531169350</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Not Quite What We Hoped For</t>
+  </si>
+  <si>
+    <t>Disappointing experience.  The property is a little run down.Rugs in the hallways were quite stained and old and there was a smell in the hallway on the way to out room.Access to the office is tight and awkward.  When we arrived it was being blocked by one of the front desk staff. I had taken my wife on this trip and she did not want to stay.  I was planning to stay there 2 nights but cancelled out for the second night in favor of a property about 15-20 miles west of LA which turned out a lot better.  We checked out right after my sales call early the next morning.  Obviously properties can be updated and may change and this was our opinion at the time. In honesty it is hard to find a reasonably priced property in the greater LA area from my past experiences and there have been worse like near the airport in LA and Van Nuys areas. A few years ago my credit card information was compromised at a gas station.  Hope you do better!MoreShow less</t>
+  </si>
+  <si>
+    <t>Disappointing experience.  The property is a little run down.Rugs in the hallways were quite stained and old and there was a smell in the hallway on the way to out room.Access to the office is tight and awkward.  When we arrived it was being blocked by one of the front desk staff. I had taken my wife on this trip and she did not want to stay.  I was planning to stay there 2 nights but cancelled out for the second night in favor of a property about 15-20 miles west of LA which turned out a lot better.  We checked out right after my sales call early the next morning.  Obviously properties can be updated and may change and this was our opinion at the time. In honesty it is hard to find a reasonably priced property in the greater LA area from my past experiences and there have been worse like near the airport in LA and Van Nuys areas. A few years ago my credit card information was compromised at a gas station.  Hope you do better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r512934242-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>512934242</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>clean affordable accomodation</t>
+  </si>
+  <si>
+    <t>check in quick, parking fills up late afternoon.Room was in a corner , no natural sunlight.Room smaller, bathroom smaller again.Shower head water pressure just ok, hot water very touchy .Bed soft ok one night 2nd night woke up sore back.Housecleaning very good.location to restaurants  ok.Pool clean.Would we stay here again - maybe</t>
+  </si>
+  <si>
+    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r508253685-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -249,9 +336,6 @@
     <t>Since my last review couple of years back, this place is gone way down. If you are staying for a couple of days, you will have to endure the really very very dirty carpets throughout the motel. It is worse in the rooms. I checked out several and they were all very very dirty with spots all over. You will not feel like walking bear feet in the room. Other than that the houskeeping does a good job of cleaning the bath room and doing the beds. The breakfast is decent but in a very small space. Location is good if you like chinese/thai food. Also, very thin walls - you will hear everything next door.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded August 4, 2017</t>
   </si>
   <si>
@@ -261,9 +345,6 @@
     <t>Since my last review couple of years back, this place is gone way down. If you are staying for a couple of days, you will have to endure the really very very dirty carpets throughout the motel. It is worse in the rooms. I checked out several and they were all very very dirty with spots all over. You will not feel like walking bear feet in the room. Other than that the houskeeping does a good job of cleaning the bath room and doing the beds. The breakfast is decent but in a very small space. Location is good if you like chinese/thai food. Also, very thin walls - you will hear everything next door.More</t>
   </si>
   <si>
-    <t>Lani88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r502363147-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -279,15 +360,9 @@
     <t>With Best Western getting out of Monterey Park market at their location near Atlantic Square, and Ramada's exit quite some time ago of Lincoln Plaza.  Comfort Inn is the only remaining chain hotel at Monterey Park if you wish stay near by the Atlantic Bivd./ Garvey Ave. area.  It is a no-thrill facility, a place to lay your head for the night with free parking and continental breakfast provided.  The attitude of the front desk personnel can be best described as indifference.  It definitely is NOT worth staying at $170 per night on our recent trip this past week at Monterey Park. The 1 King bedroom and bathroom are of decent size. The wash basin is located right off the entrance to the room, separate from the bathroom (toilet and shower/tub), which works fine for us, as one of us could get ready with washing face/brushing teeth/blow-drying hair while the other person is using the toilet or showering.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>With Best Western getting out of Monterey Park market at their location near Atlantic Square, and Ramada's exit quite some time ago of Lincoln Plaza.  Comfort Inn is the only remaining chain hotel at Monterey Park if you wish stay near by the Atlantic Bivd./ Garvey Ave. area.  It is a no-thrill facility, a place to lay your head for the night with free parking and continental breakfast provided.  The attitude of the front desk personnel can be best described as indifference.  It definitely is NOT worth staying at $170 per night on our recent trip this past week at Monterey Park. The 1 King bedroom and bathroom are of decent size. The wash basin is located right off the entrance to the room, separate from the bathroom (toilet and shower/tub), which works fine for us, as one of us could get ready with washing face/brushing teeth/blow-drying hair while the other person is using the toilet or showering.More</t>
   </si>
   <si>
-    <t>Ruth G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r494717548-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -306,7 +381,40 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>manilabelle</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r490492923-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>490492923</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Good for a short stay</t>
+  </si>
+  <si>
+    <t>We had to stay at this hotel because of a broken water main in our street. The hotel was nice and clean. When we left in the morning, we had toast and coffee in the lobby. The front desk asked if we had a restfull night, and we said yes.My wife had a complaint that the room had the smell of cigarette smoke</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r486855151-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>486855151</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Short stay</t>
+  </si>
+  <si>
+    <t>small decent place if you only need a place to sleep.  Close enough to the main attractions with easy freeway access.  I like that it was in the middle of my planned adventures, so I could go in different directions each day.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r481149083-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -330,9 +438,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Traacy1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r474610605-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -348,12 +453,6 @@
     <t>This hotel is about 45 minutes by Uber from the Airport. Staff was there but all seemed to be aloof and not very friendly. Room was comfortable and had a small fridge and microwave. There are many restaurants (mostly Asian) within walking distance of the hotel.</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>Angbas81</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r471824340-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -372,7 +471,37 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Ed_Uyeshima</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r470236720-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>470236720</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Budget motel , nothing to wrote home about but clean and well maintain.</t>
+  </si>
+  <si>
+    <t>Room are quite small but clean, nothing to wrote home about, when I went there they ran out of room so they give me a room with Jacuzzi. To me since I was traveling alone it  was  not much of advantage to me. But however the Jacuzzi has strong chemical cleaning agent smell, which cause discomfort to me. Would stay again if the price is less than $100</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r457483881-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>457483881</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>I Stayed here for 4 days! Good, Safe, Clean and more spaces. I stayed at third floors( highest floors),more Asian Guest,breakfast basic good start for a day. Room came with Microwave,Good size Refrigerate,Coffee maker,Good Comfort King size bed, Minus no Sentry Safe( for Passport, Money,Jew...),Need more sound proof. Good NBC Chinese restaurant for Dim Sum only two street down. Easy go to Free way 10. Little Hong Kong town at Garvey (0nly 5 minutes drive),At corner Atlantic and Garvey another good Chinese name Express Habor also good for brunch and you can go to Huntington Library and Pasadena 20 to 25 miles, China Town or Down town Los 30 miles. You will love itMoreShow less</t>
+  </si>
+  <si>
+    <t>I Stayed here for 4 days! Good, Safe, Clean and more spaces. I stayed at third floors( highest floors),more Asian Guest,breakfast basic good start for a day. Room came with Microwave,Good size Refrigerate,Coffee maker,Good Comfort King size bed, Minus no Sentry Safe( for Passport, Money,Jew...),Need more sound proof. Good NBC Chinese restaurant for Dim Sum only two street down. Easy go to Free way 10. Little Hong Kong town at Garvey (0nly 5 minutes drive),At corner Atlantic and Garvey another good Chinese name Express Habor also good for brunch and you can go to Huntington Library and Pasadena 20 to 25 miles, China Town or Down town Los 30 miles. You will love itMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r455553054-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -400,9 +529,6 @@
 Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be...I must be getting used to Monterey Park as my go-to place when visiting L.A. with my partner, since it's close enough to everything in the city yet far enough away to be a good budget option. After all, this relatively nondescript place cost only $140 per night, but its convenient location on South Atlantic meant you can get on either the San Bernardino Freeway (I-10) or the Pomona Freeway (SR 60) pretty easily and get to all points west efficiently. In L.A., easy navigation is everything, especially before you get to the Slauson cut-off where they cut off your Slauson.At least that's what Tea Time movie host Art Fern used to say on Johnny Carson anyway. Anyhow, we got there pretty early and kept waiting for a Chinese man to finish his reservation at the front desk since he was apparently booking up rooms for quite a large family wedding. When it was finally my turn, we were given a decent enough room on the first floor, even though there appeared to be a midnight track meet being held above us. Damn kids. Parking was never a problem since there are spaces all around the standalone building. Although not a deal breaker for us, the complimentary breakfast was about the worst I've ever had with rubbery eggs, inedible sausage, and stale pastries. Only the cereal and presumably the waffles appeared safe to eat in what had to be the smallest room with only three tables available. That meant waiting around with your plate in hand as you hope people will eventually give up their tables. Yeah, as if.More</t>
   </si>
   <si>
-    <t>robertrT4940ZT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r447323270-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -424,9 +550,6 @@
     <t>The room was very small, with 2 queen beds, a large desk and a desk chair, a cabinet that had 2 or 3 drawers and held a small micro and refrigerator, a flat screen TV on the wall.  The bathroom had a tub and toilet,  The small sink was outside in the entryway next to the open closet.  The carpet was stained in several places.  The breakfast was ample and included hot items, but the breakfast room was very small - three small tables and 9 chairs for a three-story building.  The yogurt ran out an hour before the close of breakfast and was not replenished.  The hallway carpet was worn and stained. There is really no lobby, just a check-in desk and an elevator, which could also be accessed from the rear through a basement hallway.   To enter through the front door, there was a choice of stairs or a very steep driveway.More</t>
   </si>
   <si>
-    <t>chelsseo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r446474050-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -439,7 +562,7 @@
     <t>Absolute RIP OFF</t>
   </si>
   <si>
-    <t>When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day 👌- We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! 
+    <t>When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! 
 This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .
 Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!
 This receptionist named May allowed us to extend our check out time till 12 pm 
@@ -450,7 +573,7 @@
 Don't know where all of the positive reviews come from...When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!This receptionist named May allowed us to extend our check out time till 12 pm The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .Save yourself from all of this hassle and go to another hotel . This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . Don't know where all of the positive reviews come from - everyone was unfriendly here - no one smiled at us BYE I'M OUTTA HEREMoreShow less</t>
   </si>
   <si>
-    <t>When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day 👌- We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! 
+    <t>When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! 
 This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .
 Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!
 This receptionist named May allowed us to extend our check out time till 12 pm 
@@ -461,7 +584,40 @@
 Don't know where all of the positive reviews come from...When I first come into the hotel room , I actually saw pubic hair and used toilet tissue papers lying on top of the toilet seat. It absolute disgusts me -quickly changed hotel on the 3rd day - We switched to best western right away ! Also , we saw some hotel room guests left the hotel to switch to  best western too ! This hotel charges us $180 per night and ONLY provides us three pinky sized bottles of shampoo , conditioner and lotion . We stayed here for three days , and they only gave us shampoo to use on the first day and NOTHING ELSE AFTER THAT .Check out time was 11 am - the Indian workers were SUPER DUPER RUDE !!!This receptionist named May allowed us to extend our check out time till 12 pm The Indian staffs repeated  asked us to check out rudely (Knocked on the door loudly , spoke to us so horridly - told us off and said " We will be coming to check on your room at 12 pm , better start packing up and leave now."Housekeeping maid threw sharp/fierce glances making us feel uncomfortable .Save yourself from all of this hassle and go to another hotel . This hotel sort of ruined my stay in Los Angeles , was only here for 8 days . Don't know where all of the positive reviews come from - everyone was unfriendly here - no one smiled at us BYE I'M OUTTA HEREMore</t>
   </si>
   <si>
-    <t>Joveecarl11</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r429897841-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>429897841</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Restful stay</t>
+  </si>
+  <si>
+    <t>In town to visit family while also in for business. The receptionist was warm and hospitable! I felt the extra attention that I expect whenever I go to any Comfort Inn! My room was spacious and clean. The shower was perfect and plenty of power. I asked for extra shampoo from the housekeeping lady who happily gave me a couple of small bottles.The only draw back was I was in a room next to the stairway and elevator so i experienced brief noisy moments which was okay. Whenever I am in town I will book this hotel.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r428300951-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>428300951</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This place is great place to stay, there are many restaurant near by, walking distant to shopping area, even a Dollar Tree next to the hotel. You can get a lot staff from there. There is Ranch 99 store, walking 7 minutes. The breakfast area is not big, but comfortable. Front desk very warm, we stayed 7 days. Good place.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r427645920-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -479,12 +635,6 @@
     <t>This comfort inn was ok with a very small breakfast area. My room was located right next to check in area so we heard everyone walking in and out. Staff was ok but not to accommodating. Location is ok also</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Marissa B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r426580543-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -500,9 +650,6 @@
     <t>All the businesses around this place were in Japanese which made me wonder if we crossed the ocean somehow.  The place is ran by India, Indians which were friendly.  Room is very clean and bed is comfortable. The bathroom was average with ok water pressure for a shower.</t>
   </si>
   <si>
-    <t>Ron C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r425343213-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -521,7 +668,43 @@
     <t>For a nonsmoking hotel, the first thing I noticed was the smoke odor.  After checking in I walked to my room and noticed the filthy carpets.  Once I was in the room I noticed more stains in the carpet.  I had to rush out for dinner and Disneyland.  I returned and totally crashed but noticed the fan wasn't working on the AC unit.  As I was getting ready for my Monday this was the worst thing I noticed: all the towels, washcloths, and hand towels were grey and very dingy!!! I advised the front desk of all issues and their response was the washer must be not working correct. I had 2 weeks reserved but checked out immediately after I talked to the front desk and cancelled my reservation.More</t>
   </si>
   <si>
-    <t>Adrian B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r414801949-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>414801949</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>It's okay</t>
+  </si>
+  <si>
+    <t>I went to LA with my family.  I also had my 2 years old daughter with me.  It was a okay hotel, clean and it's not too bad for staying 3 nights.  But the bath tub was so slippery, my mother and my daughter both slipped in the bath tub.  Also the shower head was not kid-friendly at all.  The water which came out from the shower head hurt my daughter every time she took shower.  So if you just have a short stay in Monterey Park, it's a decent hotel.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r383772182-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>383772182</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Decent, basic rooms for a quick stay</t>
+  </si>
+  <si>
+    <t>The Comfort Inn Monterey Park is a simple, no-frills hotel. Rooms are an adequate size and come with a refridgerator, microwave, coffee maker etc.; the bathroom is small but bath and shower fittings are sturdy and work with no problems. The bed is fine, and staff are helpful. Location-wise, it's central to Monterey Park, but if you want Downtown L.A. you may have to contend with traffic heading into the city.While the breakfast food was ok, the dining room itself was pretty small and it was sometimes difficult to find a space. Most often I looked elsewhere for breakfast anyway, though.The only negative from my trip was that the complimentary wi-fi didn't quite reach into my room - I was in one of the rooms at the rear of the building and suffered from poor connection strength and speedMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The Comfort Inn Monterey Park is a simple, no-frills hotel. Rooms are an adequate size and come with a refridgerator, microwave, coffee maker etc.; the bathroom is small but bath and shower fittings are sturdy and work with no problems. The bed is fine, and staff are helpful. Location-wise, it's central to Monterey Park, but if you want Downtown L.A. you may have to contend with traffic heading into the city.While the breakfast food was ok, the dining room itself was pretty small and it was sometimes difficult to find a space. Most often I looked elsewhere for breakfast anyway, though.The only negative from my trip was that the complimentary wi-fi didn't quite reach into my room - I was in one of the rooms at the rear of the building and suffered from poor connection strength and speedMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r376119840-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -545,9 +728,6 @@
     <t>I had Business in Monterey Park So I check in the room was filthy the bed was unmade there was trash in all of the receptacles. I returned to the Front desk and informed the clerk and he immediately assigned me another room. This is where it gets weird. I go into La for dinner with friends and upon my return to the hotel my room door is open. I double checked to make sure the room was locked when AI left. I had left an IPad in the room charging and because my room was at the end of the hall and my door was not visible. The two end rooms are in a alcove .All of my items were intact in my room.More</t>
   </si>
   <si>
-    <t>Arturo C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r374495198-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -563,9 +743,6 @@
     <t xml:space="preserve">Traveling to downtown LA can be overwhelming during rush hour. This hotel was quick access and comfortable. It is an older hotel and it does need a lot of taking care of, and a bit noisy in the morning . However, It's a clean bed and your basic amenities. </t>
   </si>
   <si>
-    <t>De Anna S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r373218218-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -584,7 +761,44 @@
     <t>After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the...After researching hotels in the LA area we choose this hotel based on the good reviews, location, price and complimentary parking. Our travel agent booked a king, non smoking room away from the elevator approximately four months prior to our trip. Upon arrival the desk clerk told us there were no non smoking rooms left. We checked in around 4pm which was check in time. I asked if it smelled of smoke. The clerk said that it may smell but they spray when it's cleaned. She also said I didn't have to take the room if I didn't want it and go elsewhere which I thought was rude considering my reservation was for non smoking. She offered for me to go check it out before I accepted and so I did. It did smell but it wasn't unbearable. So I accepted. The room itself was small but it served its purpose. We shower and sleep in the room and both of those things were fine. The towels were a bit old and thin but it was fine. The hotel is in a Chinese town, not the actual Chinatown of LA. our last night I asked if I could print our boarding passes and was told no because the printer was broken, however at midnight our printed final bill was placed under our door. I asked again at checkout and was again told that the printer was broke. I showed the clerk my bill and asked if it was broken when the bill was printed and she didn't say a word! Needless to say I will not stay here again or recommend this hotel to anyone. If you choose to stay here there is a great pizza place named Shakey's Pizza, Boston Market, IHOP, and Marie Callendars restaurant nearby. More</t>
   </si>
   <si>
-    <t>jimmyontheline</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r367611734-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>367611734</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Nice place, cramped dining</t>
+  </si>
+  <si>
+    <t>I had the king room. There was a lot of space. It was clean, and the bed was comfortable, if a bit hard. The towels were nice. Could have used a side chair or something. Did have a desk and desk chair, as well as a microwave, refrigerator, coffee maker, hair dryer, Iron, ironing board, large screen TV, and suitcase stand. Real estate is high in LA, so I wasn't expecting anything huge. The bathroom was on the small side, but nice, well-painted, and had wood-look laminate flooring. The water pressure in the shower was great, and the temperature held steady. The A/C worked well and kept the room nice and cool. The curtains overlapped properly and kept out the sunlight pretty well. Lighting was great in the bathroom, but poor in the rest of the room. No desk lamp. I couldn't see to cut some paper, so had to do it in the bathroom.
+Some people complained about noise, but I was on the second floor by the elevator, and my room was nice and quiet. This was a non-smoking room, and smelled clean and fresh, especially after a housekeeping visit.
+The breakfast room is tiny!! There are three tables, but not all have four chairs because they won't fit. When people are sitting at the tables, it's hard to get to the food. I stayed for a week, and one day a group was having breakfast. It was...I had the king room. There was a lot of space. It was clean, and the bed was comfortable, if a bit hard. The towels were nice. Could have used a side chair or something. Did have a desk and desk chair, as well as a microwave, refrigerator, coffee maker, hair dryer, Iron, ironing board, large screen TV, and suitcase stand. Real estate is high in LA, so I wasn't expecting anything huge. The bathroom was on the small side, but nice, well-painted, and had wood-look laminate flooring. The water pressure in the shower was great, and the temperature held steady. The A/C worked well and kept the room nice and cool. The curtains overlapped properly and kept out the sunlight pretty well. Lighting was great in the bathroom, but poor in the rest of the room. No desk lamp. I couldn't see to cut some paper, so had to do it in the bathroom.Some people complained about noise, but I was on the second floor by the elevator, and my room was nice and quiet. This was a non-smoking room, and smelled clean and fresh, especially after a housekeeping visit.The breakfast room is tiny!! There are three tables, but not all have four chairs because they won't fit. When people are sitting at the tables, it's hard to get to the food. I stayed for a week, and one day a group was having breakfast. It was impossible to get to the food, so I had to wait and come back later. The food is exactly the same every day: powdered scrambled eggs, sausage (or was it veggie sausage?) links, make-your-own plain and chocolate chip waffles (one iron), orange and apple juice, coffee, tea, toast, boxed pastry, boxed mini-muffins, boiled eggs, yogurt, dry cereal, fruit (apples, bananas, oranges). I've had better, but I've had worse.The parking lot was always full on one side, but there were plenty of spaces on the other side, so I was always near the door. You need to be very careful and slow when entering and leaving or your car will bottom out. The area around the hotel is very nice, and there are tons of great restaurants -- Chinese, Japanese, Korean. I saw a sign that said "mall", but there wasn't one that I could find. There is a 24-hour Fitness a couple doors down. One thing I rally liked was that i could turn left onto Atlantic Blvd at any time of day. I just had to wait an extra minute or two at rush hour.The hotel staff was very friendly and helpful. The only negative about the staff was that I used all the cups in my room, and was never given any replacements.Overall, I think this hotel was a good choice, and I would stay there again in a heartbeat. The price was good for the area, it was in a great location, and the facilities were better than I expected from reading reviews. It's really better than a 3 to me, but not as good as a 4.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I had the king room. There was a lot of space. It was clean, and the bed was comfortable, if a bit hard. The towels were nice. Could have used a side chair or something. Did have a desk and desk chair, as well as a microwave, refrigerator, coffee maker, hair dryer, Iron, ironing board, large screen TV, and suitcase stand. Real estate is high in LA, so I wasn't expecting anything huge. The bathroom was on the small side, but nice, well-painted, and had wood-look laminate flooring. The water pressure in the shower was great, and the temperature held steady. The A/C worked well and kept the room nice and cool. The curtains overlapped properly and kept out the sunlight pretty well. Lighting was great in the bathroom, but poor in the rest of the room. No desk lamp. I couldn't see to cut some paper, so had to do it in the bathroom.
+Some people complained about noise, but I was on the second floor by the elevator, and my room was nice and quiet. This was a non-smoking room, and smelled clean and fresh, especially after a housekeeping visit.
+The breakfast room is tiny!! There are three tables, but not all have four chairs because they won't fit. When people are sitting at the tables, it's hard to get to the food. I stayed for a week, and one day a group was having breakfast. It was...I had the king room. There was a lot of space. It was clean, and the bed was comfortable, if a bit hard. The towels were nice. Could have used a side chair or something. Did have a desk and desk chair, as well as a microwave, refrigerator, coffee maker, hair dryer, Iron, ironing board, large screen TV, and suitcase stand. Real estate is high in LA, so I wasn't expecting anything huge. The bathroom was on the small side, but nice, well-painted, and had wood-look laminate flooring. The water pressure in the shower was great, and the temperature held steady. The A/C worked well and kept the room nice and cool. The curtains overlapped properly and kept out the sunlight pretty well. Lighting was great in the bathroom, but poor in the rest of the room. No desk lamp. I couldn't see to cut some paper, so had to do it in the bathroom.Some people complained about noise, but I was on the second floor by the elevator, and my room was nice and quiet. This was a non-smoking room, and smelled clean and fresh, especially after a housekeeping visit.The breakfast room is tiny!! There are three tables, but not all have four chairs because they won't fit. When people are sitting at the tables, it's hard to get to the food. I stayed for a week, and one day a group was having breakfast. It was impossible to get to the food, so I had to wait and come back later. The food is exactly the same every day: powdered scrambled eggs, sausage (or was it veggie sausage?) links, make-your-own plain and chocolate chip waffles (one iron), orange and apple juice, coffee, tea, toast, boxed pastry, boxed mini-muffins, boiled eggs, yogurt, dry cereal, fruit (apples, bananas, oranges). I've had better, but I've had worse.The parking lot was always full on one side, but there were plenty of spaces on the other side, so I was always near the door. You need to be very careful and slow when entering and leaving or your car will bottom out. The area around the hotel is very nice, and there are tons of great restaurants -- Chinese, Japanese, Korean. I saw a sign that said "mall", but there wasn't one that I could find. There is a 24-hour Fitness a couple doors down. One thing I rally liked was that i could turn left onto Atlantic Blvd at any time of day. I just had to wait an extra minute or two at rush hour.The hotel staff was very friendly and helpful. The only negative about the staff was that I used all the cups in my room, and was never given any replacements.Overall, I think this hotel was a good choice, and I would stay there again in a heartbeat. The price was good for the area, it was in a great location, and the facilities were better than I expected from reading reviews. It's really better than a 3 to me, but not as good as a 4.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r362401925-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>362401925</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is no way close to its ratings!!  Room is nasty, lamps have torn dirty shades, carpets are gross, etc. Suppose to provide hair dryer and since the one in our room was torn off the wall they said I could go into a dirty room and use that one. I had to go buy my own.  Also the wifi and internet service went down so no tv or wifi.  Company prepaid so stuck with 3 days in this dump with managers that can only say "sorry for your inconvenience "!  We I am too because we will not return. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r360501234-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -605,9 +819,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>William J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r357716850-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -626,9 +837,6 @@
     <t>Stayed here on a Sunday night, hotel was about 3/4 full. Good location just east of Downtown LA, between the 10 and 60 Freeways. Decent area, many Asian restaurants and stores within walking distance. Tight, small parking lot - good luck parking your behemoth SUVs. Front desk staff could be more friendly. Asked for upper floor room - was assigned 2nd floor room instead - as a result, I endured a long night of what must have been a sumo wrestling meet or a furniture moving contest in the room above me - very unpleasant, resulting in a poor nights' sleep. My King room was small but clean. Bed was comfortable. Hallway carpet on 2nd floor was filthy and disgusting. Overall, I was disappointed and do not plan on returning.More</t>
   </si>
   <si>
-    <t>Hector G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r350714088-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -647,7 +855,46 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Quinnfuzzymom</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r329823356-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>329823356</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Standard Choice Hotel</t>
+  </si>
+  <si>
+    <t>This comfort inn is definitely nothing special, and if you've stayed in any choice hotel before this is pretty standard. You are definitely not getting any fantastic rooms but they are very well up to standard. The room we stayed was an accessible one so it was quite spacious, with 2 queen beds. So we aren't sure if the standard 2 queen would be too. We got upgraded the day of check in to the accessible, so I would recommend! We also did not have their complimentary breakfast but we took a quick look and it was decent. (VERY basic) We went out in the area to have Asian breakfast and it was delicious! Totally recommend checking out the area. There was also a seafood restaurant that had lineups everyday, so check that out...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This comfort inn is definitely nothing special, and if you've stayed in any choice hotel before this is pretty standard. You are definitely not getting any fantastic rooms but they are very well up to standard. The room we stayed was an accessible one so it was quite spacious, with 2 queen beds. So we aren't sure if the standard 2 queen would be too. We got upgraded the day of check in to the accessible, so I would recommend! We also did not have their complimentary breakfast but we took a quick look and it was decent. (VERY basic) We went out in the area to have Asian breakfast and it was delicious! Totally recommend checking out the area. There was also a seafood restaurant that had lineups everyday, so check that out...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r328807384-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>328807384</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Inconsistencies</t>
+  </si>
+  <si>
+    <t>The bottomline is the bed was comfortable, the room was clean and quiet, and all the basics were there.  But where there was plenty of room for the advertised easy chair in the king room there was a floor lamp and nothing, the free wifi was awful, there was almost never anyone at the front desk and when there was I've almost never encountered a more disinterested, unfriendly, front desk staff.  On the other hand, the room service staff were friendly and efficient.  We shared the room with a cockroach, but it only made occasional appearances.  The free breakfast is the standard powdered eggs and waffles set up, which is ok, but the room seats maybe 12 people if most of them are willing to share one table.  There were things that were really good about this property, but it was just off enough that I wasn't sorry to check out after a couple of nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>The bottomline is the bed was comfortable, the room was clean and quiet, and all the basics were there.  But where there was plenty of room for the advertised easy chair in the king room there was a floor lamp and nothing, the free wifi was awful, there was almost never anyone at the front desk and when there was I've almost never encountered a more disinterested, unfriendly, front desk staff.  On the other hand, the room service staff were friendly and efficient.  We shared the room with a cockroach, but it only made occasional appearances.  The free breakfast is the standard powdered eggs and waffles set up, which is ok, but the room seats maybe 12 people if most of them are willing to share one table.  There were things that were really good about this property, but it was just off enough that I wasn't sorry to check out after a couple of nights.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r327894310-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -665,15 +912,9 @@
     <t>We again recently stayed here when we visited our daughter in Monterey Park.    First time was September 2014 and this time was November 2015 for one night with a Las Vegas cousin and her husband who drove the 4 of us to LA.  Our rooms were across from each other as I had requested when making the reservation and the included breakfast met our needs.  Waffles, scrambled eggs, sausage, limited assortment of cold cereals, orange and apple juices, oatmeal, yogurt, fresh fruits, and coffee are all included. When you arrive, I recommend that you park in one of the parking spots on either side of the hotel and walk into the front entrance to avoid any damage to the underside of your car.MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>We again recently stayed here when we visited our daughter in Monterey Park.    First time was September 2014 and this time was November 2015 for one night with a Las Vegas cousin and her husband who drove the 4 of us to LA.  Our rooms were across from each other as I had requested when making the reservation and the included breakfast met our needs.  Waffles, scrambled eggs, sausage, limited assortment of cold cereals, orange and apple juices, oatmeal, yogurt, fresh fruits, and coffee are all included. When you arrive, I recommend that you park in one of the parking spots on either side of the hotel and walk into the front entrance to avoid any damage to the underside of your car.More</t>
   </si>
   <si>
-    <t>Jennifer L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r322953405-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -692,9 +933,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>miamouse66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r316963171-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -716,7 +954,37 @@
     <t>I must say ive been to alot of hotels lately and i must say this hotel was great. Everything about it. I loved the beds with all the pillows. The fact that we could take our breakfast back to our rooms. Was so cool. Most places you have to eat it in the breakfast area. Only thing was there ice machine. Kind of scary. You have ro go to the basement to get the ice. At night no one is down there so if your a female it could be scary. I was. But everything else was great. Thank you. Will go back and i will let my friends know how nice this hotel really is.More</t>
   </si>
   <si>
-    <t>JanetteCeleste</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r314557631-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>314557631</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Good value and location</t>
+  </si>
+  <si>
+    <t>A well-run hotel that provides good value for money, especially if you pre-pay via the website. I would stay here again. Carpets etc. are a bit worn but everything was very clean. Front desk staff was friendly and helpful. Wifi worked decently. The breakfast nook is too small to seat everyone trying to get breakfast, so even the front desk staff suggests on checkin taking your breakfast to your room. Plenty of parking. Great location within walking distance of a lot of interesting Asian restaurants, cafes and shops. I felt very safe walking there, even at night. Couple of cons: The A/C was very loud but did not work well, and my room sometimes got quite hot and stuffy. It would be great also if there was a basic fitness room, but maybe that is too much to ask at this price point. I was able to go to the LA Fitness a block away instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>A well-run hotel that provides good value for money, especially if you pre-pay via the website. I would stay here again. Carpets etc. are a bit worn but everything was very clean. Front desk staff was friendly and helpful. Wifi worked decently. The breakfast nook is too small to seat everyone trying to get breakfast, so even the front desk staff suggests on checkin taking your breakfast to your room. Plenty of parking. Great location within walking distance of a lot of interesting Asian restaurants, cafes and shops. I felt very safe walking there, even at night. Couple of cons: The A/C was very loud but did not work well, and my room sometimes got quite hot and stuffy. It would be great also if there was a basic fitness room, but maybe that is too much to ask at this price point. I was able to go to the LA Fitness a block away instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r309635171-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>309635171</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>average hotel</t>
+  </si>
+  <si>
+    <t>Good location, clean all around, ample parking, but the ramp to lobby is kinda steep,  small lobby, small room, hotel is Chinese area but none of the staff speak Chinese so my Chinese only guest moved out after one day.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r285177151-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -737,9 +1005,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>jdkittrell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r278260537-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -761,9 +1026,6 @@
     <t>This is an older hotel, but it is in a nice, clean safe area around L.A. If you are fan of Asian cuisine and culture, this is a perfect place. I was very concerned that my stay would be horrible when the first words I hear from the desk clerk were, "Just give me your license." She did not greet me at all, did not smile, and was short in her answers to me. The rooms are hotel rooms; there are not suites. There is not really a lobby area, and the breakfast "nook" can only accommodate 12 guests at a time. The rooms were comfortable, and the rest of the staff was most pleasant. I would stay here again!More</t>
   </si>
   <si>
-    <t>kleemc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r268215279-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -782,7 +1044,37 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>RainbowCowboy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r262103925-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>262103925</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>All good with this price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, clean room and bed, good location (restaurants in walking distance). You even got a microwave and a big fridge in the room! The only thing missing is the kettle. We travelled with our one year old girl so we needed hot water. Eventually we had to buy one. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r261158535-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>261158535</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Did not match others reviews and WiFi was terrible</t>
+  </si>
+  <si>
+    <t>The hotel has a good rating from others, but during my stay was only average.The parking was small, but adequate.Check in person was nice.The room was small but ok.Problems with Air Con taking hours to cool down.Bed was GREAT.Most annoying was WiFi- the signal was only ok outside in hallway, never in the room.Cleanliness was ok.If will try other places based on my experience.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r258264257-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -806,9 +1098,6 @@
     <t>We stayed here after returning from the Getty Center and we were surprised at how clean this place was.  I've been to Monterey Park before and it wasn't a very clean city overall.  There was adequate parking which we love.  The check-in process was fair as there was a line.  The room was clean and in working order.  The building wasn't new but it looked like there was a fresh coat of paint which helps.  The sleep was comfortable except the previous guest programmed the alarm clock to go out at 12:00 am.  It woke us up and annoyed the hell out of me.  But that wasn't the hotel's fault.  The check-out process was quick and easy.  The breakfast was actually pretty good except the breakfast area was tiny.  We had to take our breakfast on the go.I like the location of this hotel as it was close to many restaurants.  Would stay here again if I venture that way.More</t>
   </si>
   <si>
-    <t>ishieh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r257546191-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -848,7 +1137,46 @@
     <t>Stayed here for 6 nights in a King bed room. Location is good with lots of eating options walking distance away. Has ample parking and check in was quick. Rooms are nice with comfortable beds but can get noisy as walls are thin and you can hear the upstairs guests walking around. Asked and got a room change to an upstairs room where did not have noise trouble at night. Mr Suren the Manager was very helpful and greets all guests with a smile. Breakfast room though small, has a lot of options including waffles, hot scrambled eggs and sausages, etc., and the lady working there is quick to replanish items quickly. Overall the place is clean with good wifi and highly recomended.More</t>
   </si>
   <si>
-    <t>Detter3206</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r239321993-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>239321993</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before my fiancé had his medical school interview at USC Keck (because it is really close to the school).  The hotel was actually a lot nicer than I thought it would be.  It was very clean and looked well kept (not run down).  Free parking, fridge and microwave in room, TV, etc.  The breakfast is the same basic continental breakfast you'd get at most other hotel chains.  The coffee tastes pretty bad, so maybe pick some up somewhere else if you need that morning pick-me-up.  It was a great price for a quiet stay with free parking.  The staff was also friendly.  It can be loud if you leave your windows open, but otherwise it's pretty quiet if they are shut.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before my fiancé had his medical school interview at USC Keck (because it is really close to the school).  The hotel was actually a lot nicer than I thought it would be.  It was very clean and looked well kept (not run down).  Free parking, fridge and microwave in room, TV, etc.  The breakfast is the same basic continental breakfast you'd get at most other hotel chains.  The coffee tastes pretty bad, so maybe pick some up somewhere else if you need that morning pick-me-up.  It was a great price for a quiet stay with free parking.  The staff was also friendly.  It can be loud if you leave your windows open, but otherwise it's pretty quiet if they are shut.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r234932762-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>234932762</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Perfectly Acceptable</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights.  The room was clean with decent bed linens, good selection of pillows, and near new towels in bathroom.The room was quiet with occasional footsteps from room above our room on the 1st floor.  The breakfast is good even though there is a lack of tables.  We ate breakfast out for 3 of the 4 days so we didn't have a problem with the seating.  On our last day we got to the breakfast room at about 7:15 so there was no problem.It would have been nice if there was more than one chair in the room.  There was space for another chair so it could have been easily done.  Room did not have wall safe.The staff was not unpleasant although friendliness and communication ability was not their expertise.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights.  The room was clean with decent bed linens, good selection of pillows, and near new towels in bathroom.The room was quiet with occasional footsteps from room above our room on the 1st floor.  The breakfast is good even though there is a lack of tables.  We ate breakfast out for 3 of the 4 days so we didn't have a problem with the seating.  On our last day we got to the breakfast room at about 7:15 so there was no problem.It would have been nice if there was more than one chair in the room.  There was space for another chair so it could have been easily done.  Room did not have wall safe.The staff was not unpleasant although friendliness and communication ability was not their expertise.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r232314358-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -866,12 +1194,6 @@
     <t>We enjoyed our stay at this hotel. The employees where all very nice, though when we had a difficult time finding the hotel and called the hotel for help there was a very serious language barrier with the front desk which frustrated me and the employee. The hotel is hard to find due to over grown trees and burned out lighting (see picture). The hotel is older but is well taken care of and clean. the walls and ceilings have very little insulation so you can hear everything next door and above your room. The continental breakfast was very nice and the location seemed like a good area.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t>AdamD879</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r229798977-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -887,9 +1209,6 @@
     <t xml:space="preserve">Stayed 1 night, 2 adults, 2 teenage children. A good hotel for a stop over night. Rooms a bit small for extended stays with family.Rooms are clean and well appointed.Free breakfast is good and coffee is hot!Free parking a big plus.Recommended. </t>
   </si>
   <si>
-    <t>Donald Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r228998552-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -908,7 +1227,40 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Majosv</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r227003054-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>227003054</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Good accommodations</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night. Even though the room was advertised as smoking, you could not tell. There was lingering smoke odor. If it wasn't for the ash tray on the night stand, you wouldn't know it was a smoking room. The location was quiet and convenient for our needs. We would stay there again if the need arose. Bed was very comfortable and bathroom was clean. What more do you need. Comp breakfast was limited but good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r226535795-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>226535795</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Had a Good Stay!</t>
+  </si>
+  <si>
+    <t>Came down from Seattle for a few days and decided to stay at this hotel due to the nearby Chinese restaurants, shopping, access to freeways, and its central location.  Check in and out was quick.  Our room consist of 2 double sized beds; and the room was clean.  Having a small refrigerator and microwave was useful.  The bathroom could use a bit of updating, I noticed water damage at the bottom of the walls.  The flat screen television was fine and the WIFI was good once we figured it out.  The bath towels were a bit thin and worn.  I did notice it was much faster going down the stairwell than to wait for the elevator.  As previous reviewed by others, the dining area for the free breakfast is very limited and maneuvering around the eating area is challenging.  I found it best to get your food and drinks and eat at your room.  Overall, I would recommend staying at this hotel definitely a good value.I found a great massage place behind the gas station along S. Altantic Blvd and Garvey.  Lots of locals go there for massage.  1 hour foot massage for $15, hard to beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Came down from Seattle for a few days and decided to stay at this hotel due to the nearby Chinese restaurants, shopping, access to freeways, and its central location.  Check in and out was quick.  Our room consist of 2 double sized beds; and the room was clean.  Having a small refrigerator and microwave was useful.  The bathroom could use a bit of updating, I noticed water damage at the bottom of the walls.  The flat screen television was fine and the WIFI was good once we figured it out.  The bath towels were a bit thin and worn.  I did notice it was much faster going down the stairwell than to wait for the elevator.  As previous reviewed by others, the dining area for the free breakfast is very limited and maneuvering around the eating area is challenging.  I found it best to get your food and drinks and eat at your room.  Overall, I would recommend staying at this hotel definitely a good value.I found a great massage place behind the gas station along S. Altantic Blvd and Garvey.  Lots of locals go there for massage.  1 hour foot massage for $15, hard to beat.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r226455445-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -917,21 +1269,12 @@
     <t>226455445</t>
   </si>
   <si>
-    <t>09/02/2014</t>
-  </si>
-  <si>
     <t>decent stay in LA</t>
   </si>
   <si>
     <t>Nice hotel in a good locality with plenty of dining options outside. The front desk was friendly. Rooms were clean and comfortable. No complaints. Will definitely recommend this hotel to anyone wanting to visit LA. The reception area is a bit very small for a hotel.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
-    <t>JulianWLHung</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r216220818-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -947,9 +1290,6 @@
     <t>My first day arrival in Los Angeles.  Very nice stay, I came with my child and my sister's family, stop for a night before heading towards theme parks and other locations.  Hotel staff are friendly and helpful, rooms are tidy and clean, quiet in the evening.  Breakfast corner is a bit small, only 3 tables and 10 seats, so it's better to get there early to avoid pack of guests, breakfast is served at 6:30am with enough choices: waffle, muffin, cereal, toast, sausage &amp; eggs, coffee, juice &amp; water.  There is free parking lot, good for family or business trip.  Highly recommend!</t>
   </si>
   <si>
-    <t>86MissyJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r214131133-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -965,7 +1305,49 @@
     <t>Stayed here for an evening while in the Los Angeles area. The staff was very friendly and helpful. Our room was very nice, clean and comfortable, with a lot of space. The breakfast was fine to get you started on your day. Close drive to a lot of attractions, would recommend staying here if in the area.</t>
   </si>
   <si>
-    <t>Kyle P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r212539862-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>212539862</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>This is THE place we stay when in LA</t>
+  </si>
+  <si>
+    <t>Being from Las Vegas, LA is our #1 destination for a quick overnight get away.  We have been staying at this hotel whenever we visit LA for the past several years.This property is at a great location, close to I-10, and many delicious Chinese restaurants nearby.  The housekeeping at this hotel really does a superb job (I had commented to the manager on several occasions), as we always find the room clean and fresh.  The bed is on the firm side which we like (good for the back), and the refrigerator and A/C are all very quiet.  We don't eat the breakfast since we want to enjoy the many Chinese restaurants in the area, but I saw the breakfast selection and they looked pretty good (scrambled eggs, sausage, waffle, pastry, yogurt, cereal, etc.).  And if you’re addicted to the internet like my wife, this hotel’s wifi signal is always strong and reliable.The manager and front desk staff May have always been friendly and accommodating.  I'm a light sleeper, and whenever I asked for a room away from the front desk or elevator, they have always tried their best to accommodate us.We always have a good experience at this hotel, which is why we always stay here whenever we're in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Being from Las Vegas, LA is our #1 destination for a quick overnight get away.  We have been staying at this hotel whenever we visit LA for the past several years.This property is at a great location, close to I-10, and many delicious Chinese restaurants nearby.  The housekeeping at this hotel really does a superb job (I had commented to the manager on several occasions), as we always find the room clean and fresh.  The bed is on the firm side which we like (good for the back), and the refrigerator and A/C are all very quiet.  We don't eat the breakfast since we want to enjoy the many Chinese restaurants in the area, but I saw the breakfast selection and they looked pretty good (scrambled eggs, sausage, waffle, pastry, yogurt, cereal, etc.).  And if you’re addicted to the internet like my wife, this hotel’s wifi signal is always strong and reliable.The manager and front desk staff May have always been friendly and accommodating.  I'm a light sleeper, and whenever I asked for a room away from the front desk or elevator, they have always tried their best to accommodate us.We always have a good experience at this hotel, which is why we always stay here whenever we're in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r209741619-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>209741619</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Super Place, Great location</t>
+  </si>
+  <si>
+    <t>In the central part of LA finding a good clean hotel with free parking is not always easy.  This hotel is newer, very clean and a superb staff.  They were able to get my room ready 3 hours early and staff was very helpful for local places to eat.  There is no pool or fitness, but for a quick night with 5 minute access to the freeway or 20 minutes on surface streets up to Pasadena is a perfect location.The rooms are spacious with a work desk and very comfortable a/c units that are not blowing right on the bed.  Good lighting, nice large flat screens, and a great comfortable place.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinn Mont... c, Manager at Comfort Inn Monterey Park, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>In the central part of LA finding a good clean hotel with free parking is not always easy.  This hotel is newer, very clean and a superb staff.  They were able to get my room ready 3 hours early and staff was very helpful for local places to eat.  There is no pool or fitness, but for a quick night with 5 minute access to the freeway or 20 minutes on surface streets up to Pasadena is a perfect location.The rooms are spacious with a work desk and very comfortable a/c units that are not blowing right on the bed.  Good lighting, nice large flat screens, and a great comfortable place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r209166147-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -977,25 +1359,13 @@
     <t>06/06/2014</t>
   </si>
   <si>
-    <t>Great place to stay</t>
-  </si>
-  <si>
     <t>I stayed here for a week on business,  I would highly recommend this hotel. I have stayed at many many hotels and this hotel is going to be a regular on our scheduled visits to the area. The rooms are updated,  grear bed and linens, large flat screen tv with plenty of channels,  hot water, great water pressure in the shower, microwave and refrigerator in the room. The breakfast is not a restaurant style buffett but has plenty for breakfast like eggs, sausage,  coffee, apple juice,  orange juice,  water, milk, all konds of breads, yogurt, boiled eggs,  waffles and fresh fruit. The staff is friendly,  great parking lot, close to all the freeways I had made it from the hotel to Hollywood blvd in 20 min. No funky smells. I think it is acceptable and very safe area. I would recommend this hotel. MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>comfortinn Mont... c, General Manager at Comfort Inn Monterey Park, responded to this reviewResponded June 12, 2014</t>
   </si>
   <si>
-    <t>Responded June 12, 2014</t>
-  </si>
-  <si>
     <t>I stayed here for a week on business,  I would highly recommend this hotel. I have stayed at many many hotels and this hotel is going to be a regular on our scheduled visits to the area. The rooms are updated,  grear bed and linens, large flat screen tv with plenty of channels,  hot water, great water pressure in the shower, microwave and refrigerator in the room. The breakfast is not a restaurant style buffett but has plenty for breakfast like eggs, sausage,  coffee, apple juice,  orange juice,  water, milk, all konds of breads, yogurt, boiled eggs,  waffles and fresh fruit. The staff is friendly,  great parking lot, close to all the freeways I had made it from the hotel to Hollywood blvd in 20 min. No funky smells. I think it is acceptable and very safe area. I would recommend this hotel. More</t>
-  </si>
-  <si>
-    <t>PokeyPaddler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r192771833-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1023,9 +1393,6 @@
 There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave...Difficult to find, cramped room space, tough communication skills from some staff: all  of these cause us to not want to ever return to this location.The room was clean, and the furnishings in the two bedded room were fine, but with little space to put our bags.  We could not move from the bed to the bathroom or the exit door unless one of us was out of the room or sitting by the head of a bed. The rooms are best served for one person only. We noticed several families staying there; quite a challenge regarding movement in the rooms I should imagine. Even then, the bathroom door blocks movement in and out of the room and in and out of the doorway to the hall.  The bathroom is very small, too small for a wheelchair, yet all the rooms seem to have a wheelchair accessible size door; this door opens out,into the room's very narrow entryway.    We had to pass the water leaking into a pail in the hall, from an overhead pipe, each time we left the room to leave the floor we were staying on; rather unpleasant. There is free parking, an elevator, and a very small breakfast area off the  lobby.  There are too many tables in this small area.  Limited items offered for the free continental breakfast; I was only able to get through the crowd to get a cup of coffee; gave up on trying to get a little food and left.  I didn't make coffee in the room, with the little, individual coffeemaker because the cleaning staff had left the coffeemaker filled with water; I had no idea how long that water had been in there; I decided I did not want to clean it out for them either.The location is more than a mile from the busy Asian shopping/restaurant section of town, but only 1 block to a couple of decent Asian restaurants.  We were quite disappointed that we were unable to have any dim sum for dinner the night we were there, as so highly recommended by fellow travelers on this Tripadvisor website.  They forgot to mention that these restaurants only serve dim sum at lunch time- never at dinner time.  So, dim sum lovers be advised; arrive intime for lunch.  It is true that it is only 20 to 30 minutes to the tourist sights of LA, via the Interstate 10, which is convenient.More</t>
   </si>
   <si>
-    <t>Sylvia M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r190513725-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1041,7 +1408,40 @@
     <t>Had a very pleasant stay here. The staff was very welcoming and accomodating. The room was clean and the housekeeping staff did an excellent job of keeping it that way. Had a flat screen TV, refrigerator, microwave and coffee machine with coffee and tea bags. The breakfast bar was better than I expected and included eggs, sausage, make-your-own waffles, choice of juices, fresh fruit, pastries, yogurt, cereals, oatmeal, and hard boiled eggs. They keep the breakfast area very clean and stock items that are running out. The entire look of the hotel is professional, modern, fresh. I'd definitely come back again</t>
   </si>
   <si>
-    <t>MissFranberry</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r181925439-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>181925439</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Comfortable place at a reasonable price</t>
+  </si>
+  <si>
+    <t>Nice place - room was clean and comfortable, had a microwave and fridge and flat screen TV. Room air conditioner worked very well - I was cold by morning. Front desk was friendly and helpful. The complementary breakfast was way above average -  scrambled eggs, sausage and waffles as well as the usual fruit and muffins. The chair at the desk had cracked upholstery on the arms from where it hit the bottom of the desk, but that's a minor point. I felt the price was reasonable considering it was the LA area.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r181612865-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>181612865</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Better than expected!</t>
+  </si>
+  <si>
+    <t>The room was super clean and comfortable! That is my most important thing in a hotel. There was a fridge, microwave, flat screen tv, and got a queen bed that was incredibly comfortable! Also the bathroom was really clean with multiple size towels. AC works very well and the room was overall really great! The two Indian guys at the front desk we really friendly one at check in and the other at check out. There is also free breakfast from 630a-930a? I never really get breakfast at hotels so I dont qualify on commenting on the breakfast. OH also there is free wifi that is not the greatest but again that is something not too big in my concern list.. I got vzw 4g LTE. This comfort inn and the one by eagle rock/Glendale (near old town pasadena) are two of my favorites that I would definitely stay at again MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was super clean and comfortable! That is my most important thing in a hotel. There was a fridge, microwave, flat screen tv, and got a queen bed that was incredibly comfortable! Also the bathroom was really clean with multiple size towels. AC works very well and the room was overall really great! The two Indian guys at the front desk we really friendly one at check in and the other at check out. There is also free breakfast from 630a-930a? I never really get breakfast at hotels so I dont qualify on commenting on the breakfast. OH also there is free wifi that is not the greatest but again that is something not too big in my concern list.. I got vzw 4g LTE. This comfort inn and the one by eagle rock/Glendale (near old town pasadena) are two of my favorites that I would definitely stay at again More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r181426096-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1065,9 +1465,6 @@
     <t>Needed a last-minute place to crash after a beer event in Alhambra. Found this place on Expedia and booked because of good reviews and an even better price. Service was friendly and our room was sufficient. The interior was clean and the building was quiet and low-key. I wasn't quite comfortable going into the slightly dark basement level for a bottle of water out of the vending machine, but other than that, it was a great value hotel for a quick stay. Nearby to many good restaurants and just a mile and a half from 38 Degrees Bar &amp; Grill, who has one of the best craft beer tap lists in the city.More</t>
   </si>
   <si>
-    <t>YOLOMAN69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r178078095-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1095,9 +1492,6 @@
     <t>i was here on buisness and my boss reserved me here. good stay, nice rooms. they were very clean and tidy and i just loved it. breakfast was good (actually pretty tastyy) also it was just plain out awesome and fabulous and i loved it so much!!!!!! VERY VERY NICE STAFF! YOLOMore</t>
   </si>
   <si>
-    <t>reviews45</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r174596972-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1116,7 +1510,37 @@
     <t>Positive:  -Better price or lower price than other surrounding hotels. -Nice comfortable rooms (a few of them are small)-Safe area!! -Location is good ( no heavy traffic/cars)-Customer Service is average to great (depends on who is working) -Nice and Clean!-Better than other hotel near movie theater. Negatives: -Hotel building itself is small and compact (but room is good)-Small and compact parking space-Limited seatings at Breakfast due to hotel size-NO poolMore</t>
   </si>
   <si>
-    <t>sweetmarch</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r173279221-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>173279221</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Good location, nice breakfast, decent rooms but carpets need cleaning badly!</t>
+  </si>
+  <si>
+    <t>Eventhough this hotel is small, it's location makes up for it. Located in a very safe neighborhood of Monterey Park (I should know because I have family residing in the area and have lived nearby), it's a close walk/drive to all the great Asian cuisines this city is known for. Not as rowdy as the Best Western down the street by Atlantic Square, it's quiet yet also convenient. The room is of adequate size with a large plushed bed, fridge/microwave &amp; updated bathroom with granite counter top. The rate includes a decent breakfast in the tiny lobby &amp; there's always sufficient parking in their lot even late at nights. The day we checked out, there was a very friendly Indian guy who showed genuine concern &amp; compassion asking about our stay. It's this tiny gesture of customer service that makes me want to return again soon, plus the nice price tag. My only suggestion for the hotel is to get the carpets cleaned as they did stain my daughter's white sock easily &amp; I had to wear slippers all the time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eventhough this hotel is small, it's location makes up for it. Located in a very safe neighborhood of Monterey Park (I should know because I have family residing in the area and have lived nearby), it's a close walk/drive to all the great Asian cuisines this city is known for. Not as rowdy as the Best Western down the street by Atlantic Square, it's quiet yet also convenient. The room is of adequate size with a large plushed bed, fridge/microwave &amp; updated bathroom with granite counter top. The rate includes a decent breakfast in the tiny lobby &amp; there's always sufficient parking in their lot even late at nights. The day we checked out, there was a very friendly Indian guy who showed genuine concern &amp; compassion asking about our stay. It's this tiny gesture of customer service that makes me want to return again soon, plus the nice price tag. My only suggestion for the hotel is to get the carpets cleaned as they did stain my daughter's white sock easily &amp; I had to wear slippers all the time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r159753824-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>159753824</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Small Rooms</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is definitely sub-par to to other Comfort Inns I have stayed before.The bathroom and the room is very small. We booked it because of the proximity to Chinese restaurants. Blankets were paper thin. Breakfast was just so so. They ran out of coffee and cereal and took them quite a long time to refill. We decided to check out after one night and moved to another hotel.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r158753129-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1137,9 +1561,6 @@
     <t>I was here for 4 days for businesses trip; the inn was located in a quiet area but closed many restaurants n shops.  I had a king bed room n the size is good enough for me.  The room has a small refrigerator n microwave.  The coffee maker is on the desk.  The TV is bigger than I expected about 42'. The inn comes with free breakfast, Internet n parking.  I found its very clean n comfortable to stay.  I was in room 112, if u worry to get a noise a/c, u can ask this room; quiet n not make much noise as some reviewer said.  For a 3 star hotel, I will say its a good place to stay.Yes the dining area is small and the desk chair is old but the space inside the room is bigMore</t>
   </si>
   <si>
-    <t>IEBEV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r154216705-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1161,9 +1582,6 @@
     <t>Had a business meeting in Downtown Los Angeles the next morning and did not want to be in a rush in the morning. Stayed here for one night. Room was clean, cozy, comfortable. Staff at the front was pleasant. Parking was on either sides of the hotel. Down the street are all kinds of yummy Asian Restaurants and other places to eat, Rite Aide and Ralphs if you need groceries. It was safe and not too far from Downtown. I was placed on the first floor facing the right side of the parking lot, not too bad. I did not hear alot of noise and my heater was fine. I would stay here again plus show your Triple A card and you get your discount!!More</t>
   </si>
   <si>
-    <t>_Mundo_Traveler_11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r144641638-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1185,7 +1603,37 @@
     <t>Our room appeared to be clean and the bed was fine. However, the A/C sounded like a 747 jet engine taking off and the problem is that it changed noise tones every once in a while, which made it difficult to sleep. I was also disappointed that the room only had the desk chair. There was nowhere else to sit!!!! It's true the breakfast room only has three tables, but the food presentation and selection was fine. So you might be eating breakfast standing up if the breakfast room is full and if there is more than one person staying in your room you won't find a seat there either!!More</t>
   </si>
   <si>
-    <t>blackshark3</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r144181591-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>144181591</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>good hotel in a good city</t>
+  </si>
+  <si>
+    <t>the hotel is clean, cozy.rooms have minibar, microwave, bathroom with bathtub. it´s big enough.elevators working nice too. you can use the stairs if you like, no problem.friendly staff working there. room maids so nice. it´s worthy trying ir you around the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r143530304-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>143530304</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>very hurt client</t>
+  </si>
+  <si>
+    <t>hello my boyfriend and i were looking for a hotel to stay in so we pull in to the comfrot inn as we were pulling in the front dest employee were outside when they saw us pull in they both went inside when we got out of the our vehicle the front door was lock and the no vacancy sign was put out. i never knew that racialism was still around and that it was so close to home. i was very upset for my boyfriend but he was ok with it because he was a marine for 23 years serving this country so he has seen it all. i will never stay at this hotel due to the way we were treated.MoreShow less</t>
+  </si>
+  <si>
+    <t>hello my boyfriend and i were looking for a hotel to stay in so we pull in to the comfrot inn as we were pulling in the front dest employee were outside when they saw us pull in they both went inside when we got out of the our vehicle the front door was lock and the no vacancy sign was put out. i never knew that racialism was still around and that it was so close to home. i was very upset for my boyfriend but he was ok with it because he was a marine for 23 years serving this country so he has seen it all. i will never stay at this hotel due to the way we were treated.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r141021649-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1206,9 +1654,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>DTHIRU</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r138155409-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1227,9 +1672,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>jessy23r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r127258953-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1248,7 +1690,43 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>ken240</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r121288256-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>121288256</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>Good location but bad internet connection</t>
+  </si>
+  <si>
+    <t>This hotel is nicely located and is near to plenty of restaurants. My main gripe is the awful internet connection. I am a long-staying guest, a business traveler and I need to be online even during at night because I need to stay in close coordination with my staff. I have complained to the front desk about the internet and they keep resetting the wi-fi router to accommodate me but the  issue persists. Finally, they gave me a LAN cable which made the internet more bearable. This morning, the internet connection stopped working for all. I hope the hotel does something to correct this issue. It would be a shame if customers would shy away because they could not connect to the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This hotel is nicely located and is near to plenty of restaurants. My main gripe is the awful internet connection. I am a long-staying guest, a business traveler and I need to be online even during at night because I need to stay in close coordination with my staff. I have complained to the front desk about the internet and they keep resetting the wi-fi router to accommodate me but the  issue persists. Finally, they gave me a LAN cable which made the internet more bearable. This morning, the internet connection stopped working for all. I hope the hotel does something to correct this issue. It would be a shame if customers would shy away because they could not connect to the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r119723300-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>119723300</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Would consider if this were the only available accomodation</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel twice for two weeks. The hotel is just basic if that were okay by you. Internet, no good 'AT ALL'. Read reviews about it first but thought of taking a chance. The lobby manager was kind to lend me out an ethernet cable but that was just as good as their system setup. They told me they were working to replace the system which I saw mentioned on other reviews also, so it means it is just what they tell everyone.Asked the front desk asian lady if they had a gym and she happily said yes but it is only open 9am - 3pm. Can you believe that!! Its like opening it up forthe hotel staff only. Actually I wonder if they even have one..Breakfast sucks. Free breakfast is just as good as the word free. If u were just a basic pickup and go kinda person,just coffee maybe..MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel twice for two weeks. The hotel is just basic if that were okay by you. Internet, no good 'AT ALL'. Read reviews about it first but thought of taking a chance. The lobby manager was kind to lend me out an ethernet cable but that was just as good as their system setup. They told me they were working to replace the system which I saw mentioned on other reviews also, so it means it is just what they tell everyone.Asked the front desk asian lady if they had a gym and she happily said yes but it is only open 9am - 3pm. Can you believe that!! Its like opening it up forthe hotel staff only. Actually I wonder if they even have one..Breakfast sucks. Free breakfast is just as good as the word free. If u were just a basic pickup and go kinda person,just coffee maybe..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r118807380-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1269,9 +1747,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>TY_Luo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r117337707-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1290,9 +1765,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>norman T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r117013420-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1308,7 +1780,59 @@
     <t>disliked this hotel. very disappointing with a free WiFi try to do my work online. their speed running very very slow all the time. unlike other hotel with WiFi has couple connection to choose. breakfast suck. look at the picture breakfast room only has three table if you come a little late no sit available and no place to walk in a 300 sqf area. bathtub water running slow try to cut water cost in my feeling. I prefer the old traditional Best Western with two story and the center big parking lot unlike this one it new model type and very cramped.</t>
   </si>
   <si>
-    <t>bjt48331</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r108361830-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>108361830</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel in Monterey Park</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is relatively new (&lt; 5 years).  It is situated along Atlantic Blvd in Monterey Park.  The design of the building conforms to the slope of the land which results in a steep entrance.  The advantage is the ice and soda machines are in the basement of the hotel, therefore, keeping the noise down in the room hallways.
+The Pro’s and Con’s are as follows:
+Pro:  
+Ice and soda machines are in the basement and can’t be heard in the rooms.
+We arrived Saturday at about 12:00 PM.  Parking lot size was good and free.  The front desk person was friendly, polite and helpful.  Security cameras are installed in various locations and monitored at the front desk.  
+Our room faced south overlooking the parking lot, but was very quiet.  The outside temperature was mild, so I can’t comment regarding the room temperature in the middle of summer.  I’d suggest that a summertime visitor requests a room on the north side.  The room size was fine.  Coffee maker, microwave oven, icebox and tv worked fine.  The bathroom was clean with plenty of hot water.  Toiletries were fine along with adequate number of towels. 
+The continental breakfast was fine and reflected the other Comfort Inn and Suites.  
+Con:
+The king size bed was hard on my back, but my wife liked it fine, so if you have a bothersome back, you may want to bring your own air mattress or...This Comfort Inn is relatively new (&lt; 5 years).  It is situated along Atlantic Blvd in Monterey Park.  The design of the building conforms to the slope of the land which results in a steep entrance.  The advantage is the ice and soda machines are in the basement of the hotel, therefore, keeping the noise down in the room hallways.The Pro’s and Con’s are as follows:Pro:  Ice and soda machines are in the basement and can’t be heard in the rooms.We arrived Saturday at about 12:00 PM.  Parking lot size was good and free.  The front desk person was friendly, polite and helpful.  Security cameras are installed in various locations and monitored at the front desk.  Our room faced south overlooking the parking lot, but was very quiet.  The outside temperature was mild, so I can’t comment regarding the room temperature in the middle of summer.  I’d suggest that a summertime visitor requests a room on the north side.  The room size was fine.  Coffee maker, microwave oven, icebox and tv worked fine.  The bathroom was clean with plenty of hot water.  Toiletries were fine along with adequate number of towels. The continental breakfast was fine and reflected the other Comfort Inn and Suites.  Con:The king size bed was hard on my back, but my wife liked it fine, so if you have a bothersome back, you may want to bring your own air mattress or something.  The tv was a picture tube type and not the newer flat screen tv (This was not important.  I just needed another con).  Overall, I’d recommend this hotel.  For the price, this was well worth it.  This hotel did not have a swimming pool (at least that I saw), so I only saw adults and no small children which for me is a plus, because it keeps the noise down.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is relatively new (&lt; 5 years).  It is situated along Atlantic Blvd in Monterey Park.  The design of the building conforms to the slope of the land which results in a steep entrance.  The advantage is the ice and soda machines are in the basement of the hotel, therefore, keeping the noise down in the room hallways.
+The Pro’s and Con’s are as follows:
+Pro:  
+Ice and soda machines are in the basement and can’t be heard in the rooms.
+We arrived Saturday at about 12:00 PM.  Parking lot size was good and free.  The front desk person was friendly, polite and helpful.  Security cameras are installed in various locations and monitored at the front desk.  
+Our room faced south overlooking the parking lot, but was very quiet.  The outside temperature was mild, so I can’t comment regarding the room temperature in the middle of summer.  I’d suggest that a summertime visitor requests a room on the north side.  The room size was fine.  Coffee maker, microwave oven, icebox and tv worked fine.  The bathroom was clean with plenty of hot water.  Toiletries were fine along with adequate number of towels. 
+The continental breakfast was fine and reflected the other Comfort Inn and Suites.  
+Con:
+The king size bed was hard on my back, but my wife liked it fine, so if you have a bothersome back, you may want to bring your own air mattress or...This Comfort Inn is relatively new (&lt; 5 years).  It is situated along Atlantic Blvd in Monterey Park.  The design of the building conforms to the slope of the land which results in a steep entrance.  The advantage is the ice and soda machines are in the basement of the hotel, therefore, keeping the noise down in the room hallways.The Pro’s and Con’s are as follows:Pro:  Ice and soda machines are in the basement and can’t be heard in the rooms.We arrived Saturday at about 12:00 PM.  Parking lot size was good and free.  The front desk person was friendly, polite and helpful.  Security cameras are installed in various locations and monitored at the front desk.  Our room faced south overlooking the parking lot, but was very quiet.  The outside temperature was mild, so I can’t comment regarding the room temperature in the middle of summer.  I’d suggest that a summertime visitor requests a room on the north side.  The room size was fine.  Coffee maker, microwave oven, icebox and tv worked fine.  The bathroom was clean with plenty of hot water.  Toiletries were fine along with adequate number of towels. The continental breakfast was fine and reflected the other Comfort Inn and Suites.  Con:The king size bed was hard on my back, but my wife liked it fine, so if you have a bothersome back, you may want to bring your own air mattress or something.  The tv was a picture tube type and not the newer flat screen tv (This was not important.  I just needed another con).  Overall, I’d recommend this hotel.  For the price, this was well worth it.  This hotel did not have a swimming pool (at least that I saw), so I only saw adults and no small children which for me is a plus, because it keeps the noise down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r100553291-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>100553291</t>
+  </si>
+  <si>
+    <t>03/17/2011</t>
+  </si>
+  <si>
+    <t>A clean, basic hotel</t>
+  </si>
+  <si>
+    <t>This hotel rooms are clean, but the size is so so. My room has 2 queen beds, there's no much room left. When you open the bathroom door, you can't open the room door. The Wi-Fi speed is OK, but it doesn't allow VPN access. It might not be an issue to most travelers, but it's quite inconvenient for me since a lot of my work require VPN access. One good thing about this location is that there are many nice Chinese restaurants nearby, in fact, there's a good Peking duck house just across the road.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r99724572-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1332,9 +1856,6 @@
     <t>This trip, we booked a queen size bed room #217 (the internet special).  Much smaller than rooms with 2 queens/1 king.  Sink is in main room, close to bed.  Noisy if companion isn't on same sleep schedule.  Bed is in line with side of window so sunlight woke me as fan billowed drapes.  Bathroom door was very squeaky.  When reported to desk in AM so it could be remedied for next guests was brushed off "housekeeping will take care of it".  Well, it hadn't been fixed before we checked in!  Breakfast area is very small and staff was slow to fill coffee urns and food bowls.  Might not stay here again or at least book larger room.More</t>
   </si>
   <si>
-    <t>rockstar_11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r92036878-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
   </si>
   <si>
@@ -1371,7 +1892,52 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>im_blue</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r46200312-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>46200312</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Basic and convenient</t>
+  </si>
+  <si>
+    <t>It's a very basic hotel with no lobby or sitting areas.  We had a room with two doubles.  It felt a bit cramped with my husband and toddler.  The room was clean and comfortable.  Hotel is conveniently located.  The free breakfast is very limited but it's better than no breakfast.  The hotel does not have a pool or gym so I would not stay there again but it is fine if you just need a place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Comfort Inn Monterey Park, responded to this reviewResponded October 10, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2009</t>
+  </si>
+  <si>
+    <t>It's a very basic hotel with no lobby or sitting areas.  We had a room with two doubles.  It felt a bit cramped with my husband and toddler.  The room was clean and comfortable.  Hotel is conveniently located.  The free breakfast is very limited but it's better than no breakfast.  The hotel does not have a pool or gym so I would not stay there again but it is fine if you just need a place to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r17821526-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
+  </si>
+  <si>
+    <t>17821526</t>
+  </si>
+  <si>
+    <t>07/12/2008</t>
+  </si>
+  <si>
+    <t>Looks good but do not expect much</t>
+  </si>
+  <si>
+    <t>The place is very clean and centraly localized. Rooms are in good shape and when we first arrived we thought it was really nice. The problem is mainly with their customer service. When we first arrived they told us that breakfast was served at 6 am, even though it was listed at 6:30 on the lobby, I asked twice and got a reassurance that it was 6 am. We planned accordingly because we had an early appointment. We went down at 6:20 and there was nothing, the guy said it is usually served at 6:30! We waited and waited and at 6:30 the guy said to wait another 15 minutes. We were already late for our appt so we ended up not eating anything until noon because of this. Also we had booked one bedroom for 2 people and only had towels for one so I requested additional and they said that they coudl only give me one!! And the bathroom door was making noise so I requested they oil the door so that It wouldn't make so much noise and they said there was nothing to be done about that.....bottom line, place is clean and good but dont expect much positive outcome from workers and breakfast...good if you are in and out onlyMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>The place is very clean and centraly localized. Rooms are in good shape and when we first arrived we thought it was really nice. The problem is mainly with their customer service. When we first arrived they told us that breakfast was served at 6 am, even though it was listed at 6:30 on the lobby, I asked twice and got a reassurance that it was 6 am. We planned accordingly because we had an early appointment. We went down at 6:20 and there was nothing, the guy said it is usually served at 6:30! We waited and waited and at 6:30 the guy said to wait another 15 minutes. We were already late for our appt so we ended up not eating anything until noon because of this. Also we had booked one bedroom for 2 people and only had towels for one so I requested additional and they said that they coudl only give me one!! And the bathroom door was making noise so I requested they oil the door so that It wouldn't make so much noise and they said there was nothing to be done about that.....bottom line, place is clean and good but dont expect much positive outcome from workers and breakfast...good if you are in and out onlyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32738-d634893-r8433224-Comfort_Inn_Monterey_Park-Monterey_Park_California.html</t>
@@ -1894,47 +2460,43 @@
       <c r="A2" t="n">
         <v>55642</v>
       </c>
-      <c r="B2" t="n">
-        <v>31773</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1948,54 +2510,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55642</v>
       </c>
-      <c r="B3" t="n">
-        <v>161974</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2009,321 +2567,283 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55642</v>
       </c>
-      <c r="B4" t="n">
-        <v>29312</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55642</v>
       </c>
-      <c r="B5" t="n">
-        <v>61701</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55642</v>
       </c>
-      <c r="B6" t="n">
-        <v>161975</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55642</v>
       </c>
-      <c r="B7" t="n">
-        <v>98704</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55642</v>
       </c>
-      <c r="B8" t="n">
-        <v>161976</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s">
-        <v>103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2336,64 +2856,60 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55642</v>
       </c>
-      <c r="B9" t="n">
-        <v>161977</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2401,133 +2917,129 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55642</v>
       </c>
-      <c r="B10" t="n">
-        <v>161978</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
         <v>3</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55642</v>
       </c>
-      <c r="B11" t="n">
-        <v>161979</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2535,61 +3047,57 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55642</v>
       </c>
-      <c r="B12" t="n">
-        <v>161980</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
@@ -2602,176 +3110,172 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55642</v>
       </c>
-      <c r="B13" t="n">
-        <v>161981</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55642</v>
       </c>
-      <c r="B14" t="n">
-        <v>161982</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55642</v>
       </c>
-      <c r="B15" t="n">
-        <v>27323</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2785,124 +3289,120 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55642</v>
       </c>
-      <c r="B16" t="n">
-        <v>8015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55642</v>
       </c>
-      <c r="B17" t="n">
-        <v>28416</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>3</v>
@@ -2913,116 +3413,108 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55642</v>
       </c>
-      <c r="B18" t="n">
-        <v>39739</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55642</v>
       </c>
-      <c r="B19" t="n">
-        <v>161983</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" t="s">
-        <v>87</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -3035,63 +3527,59 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55642</v>
       </c>
-      <c r="B20" t="n">
-        <v>161984</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>3</v>
@@ -3102,66 +3590,62 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55642</v>
       </c>
-      <c r="B21" t="n">
-        <v>466</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3169,127 +3653,115 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55642</v>
       </c>
-      <c r="B22" t="n">
-        <v>19094</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55642</v>
       </c>
-      <c r="B23" t="n">
-        <v>161985</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3301,61 +3773,59 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55642</v>
       </c>
-      <c r="B24" t="n">
-        <v>3642</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3366,54 +3836,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55642</v>
       </c>
-      <c r="B25" t="n">
-        <v>161986</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3427,54 +3893,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55642</v>
       </c>
-      <c r="B26" t="n">
-        <v>161987</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3488,194 +3950,180 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55642</v>
       </c>
-      <c r="B27" t="n">
-        <v>16550</v>
-      </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55642</v>
       </c>
-      <c r="B28" t="n">
-        <v>161988</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55642</v>
       </c>
-      <c r="B29" t="n">
-        <v>161989</v>
-      </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="n">
         <v>4</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3683,56 +4131,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55642</v>
       </c>
-      <c r="B30" t="n">
-        <v>161990</v>
-      </c>
-      <c r="C30" t="s">
-        <v>256</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
@@ -3740,7 +4186,7 @@
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3748,243 +4194,225 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55642</v>
       </c>
-      <c r="B31" t="n">
-        <v>61701</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55642</v>
       </c>
-      <c r="B32" t="n">
-        <v>161991</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="O32" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55642</v>
       </c>
-      <c r="B33" t="n">
-        <v>161992</v>
-      </c>
-      <c r="C33" t="s">
-        <v>277</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55642</v>
       </c>
-      <c r="B34" t="n">
-        <v>44993</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3998,64 +4426,62 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55642</v>
       </c>
-      <c r="B35" t="n">
-        <v>161993</v>
-      </c>
-      <c r="C35" t="s">
-        <v>290</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="J35" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="K35" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4063,131 +4489,125 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55642</v>
       </c>
-      <c r="B36" t="n">
-        <v>161994</v>
-      </c>
-      <c r="C36" t="s">
-        <v>297</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>55642</v>
       </c>
-      <c r="B37" t="n">
-        <v>161995</v>
-      </c>
-      <c r="C37" t="s">
-        <v>303</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4195,129 +4615,115 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>55642</v>
       </c>
-      <c r="B38" t="n">
-        <v>100121</v>
-      </c>
-      <c r="C38" t="s">
-        <v>309</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>316</v>
-      </c>
-      <c r="X38" t="s">
-        <v>317</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>55642</v>
       </c>
-      <c r="B39" t="n">
-        <v>161996</v>
-      </c>
-      <c r="C39" t="s">
-        <v>319</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="K39" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
         <v>3</v>
       </c>
@@ -4331,67 +4737,57 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>55642</v>
       </c>
-      <c r="B40" t="n">
-        <v>17669</v>
-      </c>
-      <c r="C40" t="s">
-        <v>327</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4402,70 +4798,60 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>55642</v>
       </c>
-      <c r="B41" t="n">
-        <v>161997</v>
-      </c>
-      <c r="C41" t="s">
-        <v>333</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4473,212 +4859,174 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>55642</v>
       </c>
-      <c r="B42" t="n">
-        <v>161998</v>
-      </c>
-      <c r="C42" t="s">
-        <v>341</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>348</v>
-      </c>
-      <c r="X42" t="s">
-        <v>349</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>55642</v>
       </c>
-      <c r="B43" t="n">
-        <v>161999</v>
-      </c>
-      <c r="C43" t="s">
-        <v>351</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>348</v>
-      </c>
-      <c r="X43" t="s">
-        <v>349</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>55642</v>
       </c>
-      <c r="B44" t="n">
-        <v>162000</v>
-      </c>
-      <c r="C44" t="s">
-        <v>358</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4690,141 +5038,119 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>55642</v>
       </c>
-      <c r="B45" t="n">
-        <v>162001</v>
-      </c>
-      <c r="C45" t="s">
-        <v>365</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>55642</v>
       </c>
-      <c r="B46" t="n">
-        <v>162002</v>
-      </c>
-      <c r="C46" t="s">
-        <v>373</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="O46" t="s">
-        <v>87</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4832,212 +5158,172 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>55642</v>
       </c>
-      <c r="B47" t="n">
-        <v>162003</v>
-      </c>
-      <c r="C47" t="s">
-        <v>381</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>55642</v>
       </c>
-      <c r="B48" t="n">
-        <v>162004</v>
-      </c>
-      <c r="C48" t="s">
-        <v>388</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s">
-        <v>394</v>
-      </c>
-      <c r="O48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>55642</v>
       </c>
-      <c r="B49" t="n">
-        <v>162005</v>
-      </c>
-      <c r="C49" t="s">
-        <v>395</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="O49" t="s">
-        <v>87</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
       </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5045,70 +5331,62 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>55642</v>
       </c>
-      <c r="B50" t="n">
-        <v>162006</v>
-      </c>
-      <c r="C50" t="s">
-        <v>402</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="J50" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="O50" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5116,58 +5394,52 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>55642</v>
       </c>
-      <c r="B51" t="n">
-        <v>162007</v>
-      </c>
-      <c r="C51" t="s">
-        <v>409</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="K51" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="n">
@@ -5183,66 +5455,62 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>55642</v>
       </c>
-      <c r="B52" t="n">
-        <v>162008</v>
-      </c>
-      <c r="C52" t="s">
-        <v>416</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
       <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5250,135 +5518,111 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>55642</v>
       </c>
-      <c r="B53" t="n">
-        <v>131232</v>
-      </c>
-      <c r="C53" t="s">
-        <v>422</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="J53" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="K53" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="O53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>2</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>55642</v>
       </c>
-      <c r="B54" t="n">
-        <v>162009</v>
-      </c>
-      <c r="C54" t="s">
-        <v>430</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="J54" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="K54" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
         <v>5</v>
       </c>
@@ -5392,70 +5636,60 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>55642</v>
       </c>
-      <c r="B55" t="n">
-        <v>131232</v>
-      </c>
-      <c r="C55" t="s">
-        <v>422</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="J55" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="K55" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5463,78 +5697,2615 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55642</v>
       </c>
-      <c r="B56" t="n">
-        <v>162010</v>
-      </c>
-      <c r="C56" t="s">
-        <v>443</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="J56" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="K56" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>449</v>
-      </c>
-      <c r="O56" t="s">
-        <v>87</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>389</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>390</v>
+      </c>
+      <c r="J57" t="s">
+        <v>391</v>
+      </c>
+      <c r="K57" t="s">
+        <v>392</v>
+      </c>
+      <c r="L57" t="s">
+        <v>393</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>394</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" t="s">
+        <v>397</v>
+      </c>
+      <c r="K58" t="s">
+        <v>398</v>
+      </c>
+      <c r="L58" t="s">
+        <v>399</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>370</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>401</v>
+      </c>
+      <c r="J59" t="s">
+        <v>402</v>
+      </c>
+      <c r="K59" t="s">
+        <v>403</v>
+      </c>
+      <c r="L59" t="s">
+        <v>404</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>405</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>408</v>
+      </c>
+      <c r="J60" t="s">
+        <v>402</v>
+      </c>
+      <c r="K60" t="s">
+        <v>409</v>
+      </c>
+      <c r="L60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>405</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K61" t="s">
+        <v>414</v>
+      </c>
+      <c r="L61" t="s">
+        <v>415</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>394</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>394</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>422</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+      <c r="K63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L63" t="s">
+        <v>425</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>426</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>429</v>
+      </c>
+      <c r="J64" t="s">
+        <v>430</v>
+      </c>
+      <c r="K64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" t="s">
+        <v>432</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>426</v>
+      </c>
+      <c r="O64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>433</v>
+      </c>
+      <c r="X64" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>437</v>
+      </c>
+      <c r="J65" t="s">
+        <v>438</v>
+      </c>
+      <c r="K65" t="s">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s">
+        <v>439</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>426</v>
+      </c>
+      <c r="O65" t="s">
+        <v>75</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>440</v>
+      </c>
+      <c r="X65" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" t="s">
+        <v>444</v>
+      </c>
+      <c r="K66" t="s">
+        <v>445</v>
+      </c>
+      <c r="L66" t="s">
+        <v>446</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>447</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>450</v>
+      </c>
+      <c r="J67" t="s">
+        <v>451</v>
+      </c>
+      <c r="K67" t="s">
+        <v>452</v>
+      </c>
+      <c r="L67" t="s">
+        <v>453</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>447</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>454</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>455</v>
+      </c>
+      <c r="J68" t="s">
+        <v>456</v>
+      </c>
+      <c r="K68" t="s">
+        <v>457</v>
+      </c>
+      <c r="L68" t="s">
+        <v>458</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>459</v>
+      </c>
+      <c r="O68" t="s">
+        <v>139</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>460</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>461</v>
+      </c>
+      <c r="J69" t="s">
+        <v>462</v>
+      </c>
+      <c r="K69" t="s">
+        <v>463</v>
+      </c>
+      <c r="L69" t="s">
+        <v>464</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>467</v>
+      </c>
+      <c r="J70" t="s">
+        <v>468</v>
+      </c>
+      <c r="K70" t="s">
+        <v>469</v>
+      </c>
+      <c r="L70" t="s">
+        <v>470</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>473</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
+        <v>475</v>
+      </c>
+      <c r="K71" t="s">
+        <v>476</v>
+      </c>
+      <c r="L71" t="s">
+        <v>477</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>478</v>
+      </c>
+      <c r="O71" t="s">
+        <v>75</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>479</v>
+      </c>
+      <c r="X71" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>482</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J72" t="s">
+        <v>484</v>
+      </c>
+      <c r="K72" t="s">
+        <v>485</v>
+      </c>
+      <c r="L72" t="s">
+        <v>486</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>471</v>
+      </c>
+      <c r="O72" t="s">
+        <v>75</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>479</v>
+      </c>
+      <c r="X72" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>488</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>489</v>
+      </c>
+      <c r="J73" t="s">
+        <v>490</v>
+      </c>
+      <c r="K73" t="s">
+        <v>491</v>
+      </c>
+      <c r="L73" t="s">
+        <v>492</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>479</v>
+      </c>
+      <c r="X73" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>494</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>495</v>
+      </c>
+      <c r="J74" t="s">
+        <v>496</v>
+      </c>
+      <c r="K74" t="s">
+        <v>497</v>
+      </c>
+      <c r="L74" t="s">
+        <v>498</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>478</v>
+      </c>
+      <c r="O74" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75" t="s">
+        <v>501</v>
+      </c>
+      <c r="K75" t="s">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s">
+        <v>503</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>505</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>506</v>
+      </c>
+      <c r="J76" t="s">
+        <v>507</v>
+      </c>
+      <c r="K76" t="s">
+        <v>508</v>
+      </c>
+      <c r="L76" t="s">
+        <v>509</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>510</v>
+      </c>
+      <c r="O76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>512</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>513</v>
+      </c>
+      <c r="J77" t="s">
+        <v>514</v>
+      </c>
+      <c r="K77" t="s">
+        <v>515</v>
+      </c>
+      <c r="L77" t="s">
+        <v>516</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>517</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>519</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>520</v>
+      </c>
+      <c r="J78" t="s">
+        <v>521</v>
+      </c>
+      <c r="K78" t="s">
+        <v>522</v>
+      </c>
+      <c r="L78" t="s">
+        <v>523</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>517</v>
+      </c>
+      <c r="O78" t="s">
+        <v>139</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>524</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>525</v>
+      </c>
+      <c r="J79" t="s">
+        <v>526</v>
+      </c>
+      <c r="K79" t="s">
+        <v>527</v>
+      </c>
+      <c r="L79" t="s">
+        <v>528</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>517</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>530</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>531</v>
+      </c>
+      <c r="J80" t="s">
+        <v>532</v>
+      </c>
+      <c r="K80" t="s">
+        <v>533</v>
+      </c>
+      <c r="L80" t="s">
+        <v>534</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>535</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>536</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>537</v>
+      </c>
+      <c r="J81" t="s">
+        <v>538</v>
+      </c>
+      <c r="K81" t="s">
+        <v>539</v>
+      </c>
+      <c r="L81" t="s">
+        <v>540</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>541</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>542</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>543</v>
+      </c>
+      <c r="J82" t="s">
+        <v>544</v>
+      </c>
+      <c r="K82" t="s">
+        <v>545</v>
+      </c>
+      <c r="L82" t="s">
+        <v>546</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>547</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>548</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>549</v>
+      </c>
+      <c r="J83" t="s">
+        <v>550</v>
+      </c>
+      <c r="K83" t="s">
+        <v>551</v>
+      </c>
+      <c r="L83" t="s">
+        <v>552</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>553</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>555</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>556</v>
+      </c>
+      <c r="J84" t="s">
+        <v>557</v>
+      </c>
+      <c r="K84" t="s">
+        <v>558</v>
+      </c>
+      <c r="L84" t="s">
+        <v>559</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>561</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>562</v>
+      </c>
+      <c r="J85" t="s">
+        <v>563</v>
+      </c>
+      <c r="K85" t="s">
+        <v>564</v>
+      </c>
+      <c r="L85" t="s">
+        <v>565</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>566</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>567</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>568</v>
+      </c>
+      <c r="J86" t="s">
+        <v>569</v>
+      </c>
+      <c r="K86" t="s">
+        <v>570</v>
+      </c>
+      <c r="L86" t="s">
+        <v>571</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>572</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>573</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
+        <v>575</v>
+      </c>
+      <c r="K87" t="s">
+        <v>576</v>
+      </c>
+      <c r="L87" t="s">
+        <v>577</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>572</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>578</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>579</v>
+      </c>
+      <c r="J88" t="s">
+        <v>580</v>
+      </c>
+      <c r="K88" t="s">
+        <v>581</v>
+      </c>
+      <c r="L88" t="s">
+        <v>582</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>583</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>585</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>586</v>
+      </c>
+      <c r="J89" t="s">
+        <v>587</v>
+      </c>
+      <c r="K89" t="s">
+        <v>588</v>
+      </c>
+      <c r="L89" t="s">
+        <v>589</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>590</v>
+      </c>
+      <c r="O89" t="s">
+        <v>75</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>591</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>592</v>
+      </c>
+      <c r="J90" t="s">
+        <v>593</v>
+      </c>
+      <c r="K90" t="s">
+        <v>594</v>
+      </c>
+      <c r="L90" t="s">
+        <v>595</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>596</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>598</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>599</v>
+      </c>
+      <c r="J91" t="s">
+        <v>600</v>
+      </c>
+      <c r="K91" t="s">
+        <v>601</v>
+      </c>
+      <c r="L91" t="s">
+        <v>602</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>603</v>
+      </c>
+      <c r="O91" t="s">
+        <v>75</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>604</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>605</v>
+      </c>
+      <c r="J92" t="s">
+        <v>606</v>
+      </c>
+      <c r="K92" t="s">
+        <v>607</v>
+      </c>
+      <c r="L92" t="s">
+        <v>608</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>609</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>610</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>611</v>
+      </c>
+      <c r="J93" t="s">
+        <v>612</v>
+      </c>
+      <c r="K93" t="s">
+        <v>613</v>
+      </c>
+      <c r="L93" t="s">
+        <v>614</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>615</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>616</v>
+      </c>
+      <c r="X93" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>619</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>620</v>
+      </c>
+      <c r="J94" t="s">
+        <v>621</v>
+      </c>
+      <c r="K94" t="s">
+        <v>622</v>
+      </c>
+      <c r="L94" t="s">
+        <v>623</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>624</v>
+      </c>
+      <c r="O94" t="s">
+        <v>75</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>55642</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>626</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>627</v>
+      </c>
+      <c r="J95" t="s">
+        <v>628</v>
+      </c>
+      <c r="K95" t="s">
+        <v>629</v>
+      </c>
+      <c r="L95" t="s">
+        <v>630</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>631</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
